--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,22 +5,54 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvazquez/HierarchicalShrinkage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvazquez/Master's Thesis/HierarchicalShrinkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2242970C-28CE-094D-A35B-2DF00E5DF58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB717AE5-C2A1-B945-9B1B-B2E522617851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="4100" windowWidth="27640" windowHeight="16940" xr2:uid="{357E562A-70B4-7247-8749-8E32BA1FF38C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{357E562A-70B4-7247-8749-8E32BA1FF38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Results!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Results!$F$4:$F$8</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Results!$I$4:$I$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Results!$L$4:$L$8</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Results!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Results!$F$4:$F$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Results!$I$4:$I$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Results!$L$4:$L$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Results!$P$4:$P$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Results!$I$4:$I$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Results!$L$4:$L$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Results!$P$4:$P$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Results!$S$4:$S$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Results!$V$4:$V$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Results!$Y$4:$Y$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Results!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Results!$F$4:$F$8</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
   <si>
     <t>DECISION TREE</t>
   </si>
@@ -77,13 +109,91 @@
   </si>
   <si>
     <t>HS-DT (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (TITANIC)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>RF (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>RF (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>RF (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>RF (TITANIC)</t>
+  </si>
+  <si>
+    <t>RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>PCA-RF (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>PCA-RF (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>PCA-RF (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>PCA-RF (TITANIC)</t>
+  </si>
+  <si>
+    <t>PCA-RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>HS-RF (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>HS-RF (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>HS-RF (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>HS-RF (TITANIC)</t>
+  </si>
+  <si>
+    <t>HS-RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (TITANIC)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,8 +328,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +543,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83E38E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B1F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -515,6 +683,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -560,8 +845,116 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -609,6 +1002,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00B1F0"/>
+      <color rgb="FF83E38E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -937,943 +1336,2519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E754C6-6445-3645-92BD-4D580DCA84A5}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" ht="28" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="O1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="O2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="20"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
         <v>27.33</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>195.21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4">
         <v>0.24529999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>73.608872890000001</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
         <v>0.26169999999999999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
+        <v>46.031610012054401</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>30.657548189163201</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>242.19914221763599</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>219.52100799999999</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="W4" s="2">
         <v>547.0455508</v>
       </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>301.53959889999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5">
         <v>27.15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>194.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5">
         <v>0.2465</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>74.103792189999993</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="24">
         <v>0.26169999999999999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
+        <v>44.333314895629798</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="L5" s="2">
+        <v>30.318941116333001</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0.46660000000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>241.54210281371999</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <v>219.39842100000001</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="W5" s="2">
         <v>544.33754399999998</v>
       </c>
+      <c r="X5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>305.08236620000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6">
         <v>27.05</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>195.43</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6">
         <v>0.24310000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>74.829862120000001</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="24">
         <v>0.26169999999999999</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
+        <v>45.1977989673614</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="L6" s="2">
+        <v>32.948920965194702</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>242.43176794052101</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="T6" s="2">
+        <v>217.66877389999999</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="W6" s="2">
         <v>542.98480989999996</v>
       </c>
+      <c r="X6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>304.61259100000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7">
         <v>26.92</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>193.97</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>4</v>
       </c>
       <c r="E7">
         <v>0.24440000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>74.081679109999996</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="24">
         <v>0.26169999999999999</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
+        <v>49.1878342628479</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30.365704059600802</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>0.4672</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>240.10727596282899</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="24">
+        <v>0.39350000000000002</v>
+      </c>
+      <c r="T7" s="2">
+        <v>223.40677310000001</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="W7" s="2">
         <v>545.23371320000001</v>
       </c>
+      <c r="X7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>305.07864899999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8">
         <v>27.31</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>189.96</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8">
         <v>0.24299999999999999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>73.289289949999997</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="24">
         <v>0.26169999999999999</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
+        <v>44.452708005905102</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>30.1584599018096</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>239.37955307960499</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5</v>
+      </c>
+      <c r="S8" s="24">
+        <v>0.3871</v>
+      </c>
+      <c r="T8" s="2">
+        <v>237.2773688</v>
+      </c>
+      <c r="U8" s="1">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="W8" s="2">
         <v>545.77588990000004</v>
       </c>
+      <c r="X8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>303.46755619999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="17"/>
+      <c r="O9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11">
         <v>79.099999999999994</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>39.479999999999997</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11">
         <v>0.75080000000000002</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>93.438646790000007</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24">
         <v>0.71519999999999995</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
+        <v>9.5695879459381104</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>26.6093072891235</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0.87590000000000001</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>85.070539951324406</v>
+      </c>
+      <c r="R11" s="25">
+        <v>1</v>
+      </c>
+      <c r="S11" s="26">
+        <v>0.8498</v>
+      </c>
+      <c r="T11" s="27">
+        <v>212.08543800000001</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="W11" s="2">
         <v>103.37239599999999</v>
       </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>263.89687609999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12">
         <v>78.94</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>39.590000000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12">
         <v>0.75049999999999994</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>93.345584869999996</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="24">
         <v>0.71519999999999995</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
+        <v>9.4325351715087802</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>26.5262351036071</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>82.274428844451904</v>
+      </c>
+      <c r="R12" s="25">
+        <v>2</v>
+      </c>
+      <c r="S12" s="26">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="T12" s="27">
+        <v>211.337795</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="W12" s="2">
         <v>103.1430721</v>
       </c>
+      <c r="X12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>264.08812690000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13">
         <v>79.13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>39.58</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13">
         <v>0.75070000000000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>93.374335290000005</v>
       </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="24">
         <v>0.71519999999999995</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
+        <v>9.3057610988616908</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>26.387755155563301</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>86.8968119621276</v>
+      </c>
+      <c r="R13" s="25">
+        <v>3</v>
+      </c>
+      <c r="S13" s="26">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="T13" s="27">
+        <v>211.327845</v>
+      </c>
+      <c r="U13" s="1">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="W13" s="2">
         <v>102.9896231</v>
       </c>
+      <c r="X13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>264.78863790000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14">
         <v>78.900000000000006</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>39.56</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>4</v>
       </c>
       <c r="E14">
         <v>0.74729999999999996</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>94.329128979999993</v>
       </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="24">
         <v>0.71519999999999995</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
+        <v>9.2647609710693306</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <v>26.3215410709381</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>82.377143144607501</v>
+      </c>
+      <c r="R14" s="25">
+        <v>4</v>
+      </c>
+      <c r="S14" s="26">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="T14" s="27">
+        <v>211.390029</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="W14" s="2">
         <v>103.0515089</v>
       </c>
+      <c r="X14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>264.33380599999998</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>5</v>
       </c>
       <c r="B15">
         <v>79.150000000000006</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>39.35</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="E15">
         <v>0.74809999999999999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>94.495390889999996</v>
       </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="24">
         <v>0.71519999999999995</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
+        <v>9.3372499942779505</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="L15" s="2">
+        <v>26.471519231796201</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>81.273869752883897</v>
+      </c>
+      <c r="R15" s="25">
+        <v>5</v>
+      </c>
+      <c r="S15" s="26">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="T15" s="27">
+        <v>209.86854099999999</v>
+      </c>
+      <c r="U15" s="1">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="W15" s="2">
         <v>103.5272992</v>
       </c>
+      <c r="X15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>264.16577169999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="17"/>
+      <c r="O16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="13"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18">
         <v>81</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.15</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18">
         <v>0.77573346600000004</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.68754410700000002</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0.85198077241836501</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.6041002273559501E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.81070777391016002</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.28699684143066401</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0.85413558760152497</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.2323648929595898</v>
+      </c>
+      <c r="R18" s="25">
+        <v>1</v>
+      </c>
+      <c r="S18" s="26">
+        <v>0.83888613000000001</v>
+      </c>
+      <c r="T18" s="27">
+        <v>9.2521748499999994</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18">
         <v>0.851980772</v>
       </c>
-      <c r="I18">
+      <c r="W18" s="2">
         <v>0.71586203599999998</v>
       </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0.81070777400000005</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>2.79746294</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19">
         <v>80.89</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19">
         <v>0.77507044599999997</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.67624688099999997</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0.85198077241836501</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5.5407762527465799E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.81070777391016002</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.279004096984863</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>0.85347256754516798</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2.2583031654357901</v>
+      </c>
+      <c r="R19" s="25">
+        <v>2</v>
+      </c>
+      <c r="S19" s="26">
+        <v>0.83374771999999997</v>
+      </c>
+      <c r="T19" s="27">
+        <v>9.0051357799999998</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2</v>
+      </c>
+      <c r="V19">
         <v>0.851980772</v>
       </c>
-      <c r="I19">
+      <c r="W19" s="2">
         <v>0.70887088799999998</v>
       </c>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>0.81070777400000005</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>2.7720379830000001</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20">
         <v>81.040000000000006</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20">
         <v>0.776396486</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.67962598799999996</v>
       </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0.85198077241836501</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5.5373907089233398E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0.81070777391016002</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.260622978210449</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>0.85347256754516798</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2.2549412250518799</v>
+      </c>
+      <c r="R20" s="25">
+        <v>3</v>
+      </c>
+      <c r="S20" s="26">
+        <v>0.83855462000000003</v>
+      </c>
+      <c r="T20" s="27">
+        <v>8.8531229499999995</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3</v>
+      </c>
+      <c r="V20">
         <v>0.851980772</v>
       </c>
-      <c r="I20">
+      <c r="W20" s="2">
         <v>0.70754098899999995</v>
       </c>
+      <c r="X20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>0.81070777400000005</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>2.7818031310000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21">
         <v>80.62</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>4</v>
       </c>
       <c r="E21">
         <v>0.77357865100000001</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.67996120500000001</v>
       </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24">
+        <v>0.85198077241836501</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5.5092096328735303E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.81070777391016002</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.25960993766784601</v>
+      </c>
+      <c r="O21" s="1">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>0.85413558760152497</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2.2376041412353498</v>
+      </c>
+      <c r="R21" s="25">
+        <v>4</v>
+      </c>
+      <c r="S21" s="26">
+        <v>0.83407922999999995</v>
+      </c>
+      <c r="T21" s="27">
+        <v>8.8371131399999996</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
+      <c r="V21">
         <v>0.851980772</v>
       </c>
-      <c r="I21">
+      <c r="W21" s="2">
         <v>0.71313261999999999</v>
       </c>
+      <c r="X21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y21">
+        <v>0.81070777400000005</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>2.767557144</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
       <c r="B22">
         <v>80.62</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>5</v>
       </c>
       <c r="E22">
         <v>0.77755677099999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.67207694100000004</v>
       </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.85198077241836501</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5.9075832366943297E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.81070777391016002</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.25847601890563898</v>
+      </c>
+      <c r="O22" s="1">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <v>0.85479860765788096</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2.2468793392181299</v>
+      </c>
+      <c r="R22" s="25">
+        <v>5</v>
+      </c>
+      <c r="S22" s="26">
+        <v>0.83540526999999998</v>
+      </c>
+      <c r="T22" s="27">
+        <v>8.8531439299999999</v>
+      </c>
+      <c r="U22" s="1">
+        <v>5</v>
+      </c>
+      <c r="V22">
         <v>0.851980772</v>
       </c>
-      <c r="I22">
+      <c r="W22" s="2">
         <v>0.71514797200000002</v>
       </c>
+      <c r="X22" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>0.81070777400000005</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>2.761221886</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="17"/>
+      <c r="O23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="32"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="13"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25">
         <v>77.650000000000006</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.02</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25">
         <v>0.65921787700000001</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>2.2442339999999999E-3</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="24">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.1812191009521402E-3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3.0548572540283199E-3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.15836596488952601</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="24">
+        <v>0.69273743016759703</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.174762964248657</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25">
         <v>0.82122905000000002</v>
       </c>
-      <c r="I25">
+      <c r="W25" s="2">
         <v>3.1949043000000003E-2</v>
       </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0.69832402199999999</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>5.3377150999999998E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26">
         <v>77.650000000000006</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26">
         <v>0.67597765399999998</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>2.0310879999999999E-3</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2.4442672729492101E-3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2.32291221618652E-3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>0.81005586592178702</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.153714895248413</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2</v>
+      </c>
+      <c r="S26" s="24">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.174715995788574</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2</v>
+      </c>
+      <c r="V26">
         <v>0.82122905000000002</v>
       </c>
-      <c r="I26">
+      <c r="W26" s="2">
         <v>2.6435851999999999E-2</v>
       </c>
+      <c r="X26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>0.69832402199999999</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>2.6199101999999998E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27">
         <v>78.209999999999994</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27">
         <v>0.65921787700000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>1.991034E-3</v>
       </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2.9633045196533199E-3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2.18796730041503E-3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>0.80446927374301602</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.167060136795043</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3</v>
+      </c>
+      <c r="S27" s="24">
+        <v>0.70391061452513903</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.17879390716552701</v>
+      </c>
+      <c r="U27" s="1">
+        <v>3</v>
+      </c>
+      <c r="V27">
         <v>0.82122905000000002</v>
       </c>
-      <c r="I27">
+      <c r="W27" s="2">
         <v>2.4561166999999998E-2</v>
       </c>
+      <c r="X27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>0.69832402199999999</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>2.8033018E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>4</v>
       </c>
       <c r="B28">
         <v>77.650000000000006</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>4</v>
       </c>
       <c r="E28">
         <v>0.66480446900000001</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>2.096891E-3</v>
       </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2.8390884399414002E-3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3.0269622802734301E-3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>0.80446927374301602</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.17024803161620999</v>
+      </c>
+      <c r="R28" s="1">
+        <v>4</v>
+      </c>
+      <c r="S28" s="24">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.17758202552795399</v>
+      </c>
+      <c r="U28" s="1">
+        <v>4</v>
+      </c>
+      <c r="V28">
         <v>0.82122905000000002</v>
       </c>
-      <c r="I28">
+      <c r="W28" s="2">
         <v>2.6794910000000002E-2</v>
       </c>
+      <c r="X28" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>0.69832402199999999</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>2.5827884999999998E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
       <c r="B29">
         <v>78.209999999999994</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>5</v>
       </c>
       <c r="E29">
         <v>0.65921787700000001</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>2.2339819999999998E-3</v>
       </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="24">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4.64224815368652E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2.9699802398681602E-3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>0.82122905027932902</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.14684677124023399</v>
+      </c>
+      <c r="R29" s="1">
+        <v>5</v>
+      </c>
+      <c r="S29" s="24">
+        <v>0.68715083798882604</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.16951298713683999</v>
+      </c>
+      <c r="U29" s="1">
+        <v>5</v>
+      </c>
+      <c r="V29">
         <v>0.82122905000000002</v>
       </c>
-      <c r="I29">
+      <c r="W29" s="2">
         <v>2.5578976E-2</v>
       </c>
+      <c r="X29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>0.69832402199999999</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>2.7102946999999999E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15" t="s">
         <v>18</v>
       </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="17"/>
+      <c r="O30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="32"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="T31" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32">
         <v>72.42</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.62</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32">
         <v>0.69966666700000002</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>0.41683816899999998</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="24">
+        <v>0.82066666666666599</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.19172096252441401</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="24">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.13484907150268499</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>7.0673420429229701</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="24">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="T32" s="2">
+        <v>8.9232189655303902</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32">
         <v>0.82066666700000002</v>
       </c>
-      <c r="I32">
+      <c r="W32" s="2">
         <v>2.1704449650000002</v>
       </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1.5420727729797301</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>2</v>
       </c>
       <c r="B33">
         <v>71.98</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.62</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>2</v>
       </c>
       <c r="E33">
         <v>0.70466666700000002</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>0.41258430499999998</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="24">
+        <v>0.82066666666666599</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.190322160720825</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="24">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.13779878616332999</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>0.8135</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>6.9868371486663801</v>
+      </c>
+      <c r="R33" s="1">
+        <v>2</v>
+      </c>
+      <c r="S33" s="24">
+        <v>0.78183333333333305</v>
+      </c>
+      <c r="T33" s="2">
+        <v>8.9540829658508301</v>
+      </c>
+      <c r="U33" s="1">
+        <v>2</v>
+      </c>
+      <c r="V33">
         <v>0.82066666700000002</v>
       </c>
-      <c r="I33">
+      <c r="W33" s="2">
         <v>2.1652998920000002</v>
       </c>
+      <c r="X33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1.5484590530395499</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34">
         <v>72.42</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.62</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34">
         <v>0.696333333</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>0.41862797699999998</v>
       </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0.82066666666666599</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.19070625305175701</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.13617897033691401</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>0.81483333333333297</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>7.35125684738159</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
+      <c r="S34" s="24">
+        <v>0.77783333333333304</v>
+      </c>
+      <c r="T34" s="2">
+        <v>8.9763503074645996</v>
+      </c>
+      <c r="U34" s="1">
+        <v>3</v>
+      </c>
+      <c r="V34">
         <v>0.82066666700000002</v>
       </c>
-      <c r="I34">
+      <c r="W34" s="2">
         <v>2.1737089159999998</v>
       </c>
+      <c r="X34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1.5512340068817101</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>4</v>
       </c>
       <c r="B35">
         <v>72.22</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.61</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>4</v>
       </c>
       <c r="E35">
         <v>0.69816666699999996</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>0.42206406600000002</v>
       </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0.82066666666666599</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.188665151596069</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="24">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.137743949890136</v>
+      </c>
+      <c r="O35" s="1">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>0.8165</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>7.2114019393920898</v>
+      </c>
+      <c r="R35" s="1">
+        <v>4</v>
+      </c>
+      <c r="S35" s="24">
+        <v>0.78083333333333305</v>
+      </c>
+      <c r="T35" s="2">
+        <v>9.06367588043212</v>
+      </c>
+      <c r="U35" s="1">
+        <v>4</v>
+      </c>
+      <c r="V35">
         <v>0.82066666700000002</v>
       </c>
-      <c r="I35">
+      <c r="W35" s="2">
         <v>2.174731016</v>
       </c>
+      <c r="X35" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1.5412302017211901</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4">
         <v>72.37</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>0.6</v>
       </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4">
         <v>0.69983333299999995</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <v>0.40968489600000002</v>
       </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36">
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.82066666666666599</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.18522286415100001</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.135076284408569</v>
+      </c>
+      <c r="O36" s="3">
+        <v>5</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0.81416666666666604</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>6.9859063625335596</v>
+      </c>
+      <c r="R36" s="3">
+        <v>5</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0.77966666666666595</v>
+      </c>
+      <c r="T36" s="5">
+        <v>8.91684889793396</v>
+      </c>
+      <c r="U36" s="3">
+        <v>5</v>
+      </c>
+      <c r="V36" s="4">
         <v>0.82066666700000002</v>
       </c>
-      <c r="I36">
+      <c r="W36" s="5">
         <v>2.199632883</v>
+      </c>
+      <c r="X36" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0.78133333333333299</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>1.5417149066925</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,32 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvazquez/Master's Thesis/HierarchicalShrinkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB717AE5-C2A1-B945-9B1B-B2E522617851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB67BA63-D3D4-334B-A220-603C1543C018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{357E562A-70B4-7247-8749-8E32BA1FF38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Results!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Results!$F$4:$F$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Results!$I$4:$I$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Results!$L$4:$L$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Results!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Results!$F$4:$F$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Results!$I$4:$I$8</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Results!$L$4:$L$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Results!$P$4:$P$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Results!$I$4:$I$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Results!$L$4:$L$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Results!$P$4:$P$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Results!$S$4:$S$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Results!$V$4:$V$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Results!$Y$4:$Y$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Results!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Results!$F$4:$F$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>DECISION TREE</t>
   </si>
@@ -129,6 +110,18 @@
     <t>RF (CIFAR-10)</t>
   </si>
   <si>
+    <t>PCA-RF (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>HS-RF (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (CIFAR-10)</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST</t>
+  </si>
+  <si>
     <t>RF (FASHION-MINST)</t>
   </si>
   <si>
@@ -139,54 +132,6 @@
   </si>
   <si>
     <t>RF (CREDIT CARD)</t>
-  </si>
-  <si>
-    <t>PCA-RF (CIFAR-10)</t>
-  </si>
-  <si>
-    <t>PCA-RF (FASHION-MINST)</t>
-  </si>
-  <si>
-    <t>PCA-RF (ADULT INCOME)</t>
-  </si>
-  <si>
-    <t>PCA-RF (TITANIC)</t>
-  </si>
-  <si>
-    <t>PCA-RF (CREDIT CARD)</t>
-  </si>
-  <si>
-    <t>HS-RF (CIFAR-10)</t>
-  </si>
-  <si>
-    <t>HS-RF (FASHION-MINST)</t>
-  </si>
-  <si>
-    <t>HS-RF (ADULT INCOME)</t>
-  </si>
-  <si>
-    <t>HS-RF (TITANIC)</t>
-  </si>
-  <si>
-    <t>HS-RF (CREDIT CARD)</t>
-  </si>
-  <si>
-    <t>PCA-HS-RF (CIFAR-10)</t>
-  </si>
-  <si>
-    <t>PCA-HS-RF (FASHION-MINST)</t>
-  </si>
-  <si>
-    <t>PCA-HS-RF (ADULT INCOME)</t>
-  </si>
-  <si>
-    <t>PCA-HS-RF (TITANIC)</t>
-  </si>
-  <si>
-    <t>PCA-HS-RF (CREDIT CARD)</t>
-  </si>
-  <si>
-    <t>RANDOM FOREST</t>
   </si>
 </sst>
 </file>
@@ -845,7 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -859,6 +804,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,10 +872,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,40 +881,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1338,83 +1280,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E754C6-6445-3645-92BD-4D580DCA84A5}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-      <c r="O1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="O1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="O2" s="18" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="O2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="20"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1438,7 +1380,7 @@
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -1447,48 +1389,30 @@
       <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="38" t="s">
+      <c r="O3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1512,7 +1436,7 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4">
         <v>0.26169999999999999</v>
       </c>
       <c r="I4" s="2">
@@ -1521,7 +1445,7 @@
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4">
         <v>0.25950000000000001</v>
       </c>
       <c r="L4" s="2">
@@ -1530,39 +1454,18 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0.46939999999999998</v>
+      <c r="P4" s="39">
+        <v>0.46879999999999999</v>
       </c>
       <c r="Q4" s="2">
-        <v>242.19914221763599</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="24">
-        <v>0.38969999999999999</v>
-      </c>
-      <c r="T4" s="2">
-        <v>219.52100799999999</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="W4" s="2">
-        <v>547.0455508</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>301.53959889999999</v>
-      </c>
+        <v>242.86147209999999</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1586,7 +1489,7 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5">
         <v>0.26169999999999999</v>
       </c>
       <c r="I5" s="2">
@@ -1595,7 +1498,7 @@
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5">
         <v>0.25950000000000001</v>
       </c>
       <c r="L5" s="2">
@@ -1604,39 +1507,18 @@
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5">
-        <v>0.46660000000000001</v>
+      <c r="P5" s="39">
+        <v>0.46760000000000002</v>
       </c>
       <c r="Q5" s="2">
-        <v>241.54210281371999</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0.39219999999999999</v>
-      </c>
-      <c r="T5" s="2">
-        <v>219.39842100000001</v>
-      </c>
-      <c r="U5" s="1">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="W5" s="2">
-        <v>544.33754399999998</v>
-      </c>
-      <c r="X5" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y5">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>305.08236620000002</v>
-      </c>
+        <v>238.2900128</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1660,7 +1542,7 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6">
         <v>0.26169999999999999</v>
       </c>
       <c r="I6" s="2">
@@ -1669,7 +1551,7 @@
       <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6">
         <v>0.25950000000000001</v>
       </c>
       <c r="L6" s="2">
@@ -1678,39 +1560,18 @@
       <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6">
-        <v>0.46870000000000001</v>
+      <c r="P6" s="39">
+        <v>0.47260000000000002</v>
       </c>
       <c r="Q6" s="2">
-        <v>242.43176794052101</v>
-      </c>
-      <c r="R6" s="1">
-        <v>3</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0.38929999999999998</v>
-      </c>
-      <c r="T6" s="2">
-        <v>217.66877389999999</v>
-      </c>
-      <c r="U6" s="1">
-        <v>3</v>
-      </c>
-      <c r="V6">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="W6" s="2">
-        <v>542.98480989999996</v>
-      </c>
-      <c r="X6" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>304.61259100000001</v>
-      </c>
+        <v>244.79900119999999</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="1"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1734,7 +1595,7 @@
       <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7">
         <v>0.26169999999999999</v>
       </c>
       <c r="I7" s="2">
@@ -1743,7 +1604,7 @@
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7">
         <v>0.25950000000000001</v>
       </c>
       <c r="L7" s="2">
@@ -1752,39 +1613,18 @@
       <c r="O7" s="1">
         <v>4</v>
       </c>
-      <c r="P7">
-        <v>0.4672</v>
+      <c r="P7" s="39">
+        <v>0.4723</v>
       </c>
       <c r="Q7" s="2">
-        <v>240.10727596282899</v>
-      </c>
-      <c r="R7" s="1">
-        <v>4</v>
-      </c>
-      <c r="S7" s="24">
-        <v>0.39350000000000002</v>
-      </c>
-      <c r="T7" s="2">
-        <v>223.40677310000001</v>
-      </c>
-      <c r="U7" s="1">
-        <v>4</v>
-      </c>
-      <c r="V7">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="W7" s="2">
-        <v>545.23371320000001</v>
-      </c>
-      <c r="X7" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y7">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>305.07864899999998</v>
-      </c>
+        <v>238.63387320000001</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="1"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1808,7 +1648,7 @@
       <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8">
         <v>0.26169999999999999</v>
       </c>
       <c r="I8" s="2">
@@ -1817,7 +1657,7 @@
       <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8">
         <v>0.25950000000000001</v>
       </c>
       <c r="L8" s="2">
@@ -1826,81 +1666,54 @@
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8">
-        <v>0.45960000000000001</v>
+      <c r="P8" s="39">
+        <v>0.47099999999999997</v>
       </c>
       <c r="Q8" s="2">
-        <v>239.37955307960499</v>
-      </c>
-      <c r="R8" s="1">
-        <v>5</v>
-      </c>
-      <c r="S8" s="24">
-        <v>0.3871</v>
-      </c>
-      <c r="T8" s="2">
-        <v>237.2773688</v>
-      </c>
-      <c r="U8" s="1">
-        <v>5</v>
-      </c>
-      <c r="V8">
-        <v>0.26169999999999999</v>
-      </c>
-      <c r="W8" s="2">
-        <v>545.77588990000004</v>
-      </c>
-      <c r="X8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y8">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>303.46755619999999</v>
-      </c>
+        <v>241.29564909999999</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="1"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="1"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="15" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="17"/>
-      <c r="O9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="17"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="O9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1924,7 +1737,7 @@
       <c r="G10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1933,48 +1746,30 @@
       <c r="J10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="38" t="s">
+      <c r="O10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1998,7 +1793,7 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11">
         <v>0.71519999999999995</v>
       </c>
       <c r="I11" s="2">
@@ -2007,7 +1802,7 @@
       <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11">
         <v>0.66120000000000001</v>
       </c>
       <c r="L11" s="2">
@@ -2016,39 +1811,19 @@
       <c r="O11" s="1">
         <v>1</v>
       </c>
-      <c r="P11">
-        <v>0.87590000000000001</v>
+      <c r="P11" s="39">
+        <v>0.876</v>
       </c>
       <c r="Q11" s="2">
-        <v>85.070539951324406</v>
-      </c>
-      <c r="R11" s="25">
-        <v>1</v>
-      </c>
-      <c r="S11" s="26">
-        <v>0.8498</v>
-      </c>
-      <c r="T11" s="27">
-        <v>212.08543800000001</v>
-      </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="W11" s="2">
-        <v>103.37239599999999</v>
-      </c>
-      <c r="X11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>263.89687609999999</v>
-      </c>
+        <v>81.454409839999997</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="1"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2072,7 +1847,7 @@
       <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12">
         <v>0.71519999999999995</v>
       </c>
       <c r="I12" s="2">
@@ -2081,7 +1856,7 @@
       <c r="J12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12">
         <v>0.66120000000000001</v>
       </c>
       <c r="L12" s="2">
@@ -2090,39 +1865,19 @@
       <c r="O12" s="1">
         <v>2</v>
       </c>
-      <c r="P12">
-        <v>0.87609999999999999</v>
+      <c r="P12" s="39">
+        <v>0.87360000000000004</v>
       </c>
       <c r="Q12" s="2">
-        <v>82.274428844451904</v>
-      </c>
-      <c r="R12" s="25">
-        <v>2</v>
-      </c>
-      <c r="S12" s="26">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="T12" s="27">
-        <v>211.337795</v>
-      </c>
-      <c r="U12" s="1">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="W12" s="2">
-        <v>103.1430721</v>
-      </c>
-      <c r="X12" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>264.08812690000002</v>
-      </c>
+        <v>81.358227970000002</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="1"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="1"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2146,7 +1901,7 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13">
         <v>0.71519999999999995</v>
       </c>
       <c r="I13" s="2">
@@ -2155,7 +1910,7 @@
       <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13">
         <v>0.66120000000000001</v>
       </c>
       <c r="L13" s="2">
@@ -2164,39 +1919,19 @@
       <c r="O13" s="1">
         <v>3</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="39">
         <v>0.87709999999999999</v>
       </c>
       <c r="Q13" s="2">
-        <v>86.8968119621276</v>
-      </c>
-      <c r="R13" s="25">
-        <v>3</v>
-      </c>
-      <c r="S13" s="26">
-        <v>0.84570000000000001</v>
-      </c>
-      <c r="T13" s="27">
-        <v>211.327845</v>
-      </c>
-      <c r="U13" s="1">
-        <v>3</v>
-      </c>
-      <c r="V13">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="W13" s="2">
-        <v>102.9896231</v>
-      </c>
-      <c r="X13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y13">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>264.78863790000003</v>
-      </c>
+        <v>83.7353363</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="1"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2220,7 +1955,7 @@
       <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14">
         <v>0.71519999999999995</v>
       </c>
       <c r="I14" s="2">
@@ -2229,7 +1964,7 @@
       <c r="J14" s="1">
         <v>4</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14">
         <v>0.66120000000000001</v>
       </c>
       <c r="L14" s="2">
@@ -2238,39 +1973,19 @@
       <c r="O14" s="1">
         <v>4</v>
       </c>
-      <c r="P14">
-        <v>0.87809999999999999</v>
+      <c r="P14" s="39">
+        <v>0.87639999999999996</v>
       </c>
       <c r="Q14" s="2">
-        <v>82.377143144607501</v>
-      </c>
-      <c r="R14" s="25">
-        <v>4</v>
-      </c>
-      <c r="S14" s="26">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="T14" s="27">
-        <v>211.390029</v>
-      </c>
-      <c r="U14" s="1">
-        <v>4</v>
-      </c>
-      <c r="V14">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="W14" s="2">
-        <v>103.0515089</v>
-      </c>
-      <c r="X14" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y14">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>264.33380599999998</v>
-      </c>
+        <v>81.138241050000005</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="1"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2294,7 +2009,7 @@
       <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15">
         <v>0.71519999999999995</v>
       </c>
       <c r="I15" s="2">
@@ -2303,7 +2018,7 @@
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15">
         <v>0.66120000000000001</v>
       </c>
       <c r="L15" s="2">
@@ -2312,81 +2027,55 @@
       <c r="O15" s="1">
         <v>5</v>
       </c>
-      <c r="P15">
-        <v>0.87350000000000005</v>
+      <c r="P15" s="39">
+        <v>0.87680000000000002</v>
       </c>
       <c r="Q15" s="2">
-        <v>81.273869752883897</v>
-      </c>
-      <c r="R15" s="25">
-        <v>5</v>
-      </c>
-      <c r="S15" s="26">
-        <v>0.84930000000000005</v>
-      </c>
-      <c r="T15" s="27">
-        <v>209.86854099999999</v>
-      </c>
-      <c r="U15" s="1">
-        <v>5</v>
-      </c>
-      <c r="V15">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="W15" s="2">
-        <v>103.5272992</v>
-      </c>
-      <c r="X15" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y15">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>264.16577169999999</v>
-      </c>
+        <v>81.001531119999996</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="1"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="1"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="15" t="s">
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="17"/>
-      <c r="O16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" s="34"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="17"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="O16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -2410,7 +2099,7 @@
       <c r="G17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -2419,48 +2108,30 @@
       <c r="J17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="38" t="s">
+      <c r="O17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="R17" s="15"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2484,7 +2155,7 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18">
         <v>0.85198077241836501</v>
       </c>
       <c r="I18" s="2">
@@ -2493,7 +2164,7 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18">
         <v>0.81070777391016002</v>
       </c>
       <c r="L18" s="2">
@@ -2502,39 +2173,19 @@
       <c r="O18" s="1">
         <v>1</v>
       </c>
-      <c r="P18">
-        <v>0.85413558760152497</v>
+      <c r="P18" s="39">
+        <v>0.854964363</v>
       </c>
       <c r="Q18" s="2">
-        <v>2.2323648929595898</v>
-      </c>
-      <c r="R18" s="25">
-        <v>1</v>
-      </c>
-      <c r="S18" s="26">
-        <v>0.83888613000000001</v>
-      </c>
-      <c r="T18" s="27">
-        <v>9.2521748499999994</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0.851980772</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0.71586203599999998</v>
-      </c>
-      <c r="X18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>0.81070777400000005</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>2.79746294</v>
-      </c>
+        <v>2.2182388309999999</v>
+      </c>
+      <c r="R18" s="9"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="1"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="1"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2558,7 +2209,7 @@
       <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19">
         <v>0.85198077241836501</v>
       </c>
       <c r="I19" s="2">
@@ -2567,7 +2218,7 @@
       <c r="J19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19">
         <v>0.81070777391016002</v>
       </c>
       <c r="L19" s="2">
@@ -2576,39 +2227,19 @@
       <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="P19">
-        <v>0.85347256754516798</v>
+      <c r="P19" s="39">
+        <v>0.85546162800000003</v>
       </c>
       <c r="Q19" s="2">
-        <v>2.2583031654357901</v>
-      </c>
-      <c r="R19" s="25">
-        <v>2</v>
-      </c>
-      <c r="S19" s="26">
-        <v>0.83374771999999997</v>
-      </c>
-      <c r="T19" s="27">
-        <v>9.0051357799999998</v>
-      </c>
-      <c r="U19" s="1">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>0.851980772</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0.70887088799999998</v>
-      </c>
-      <c r="X19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y19">
-        <v>0.81070777400000005</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>2.7720379830000001</v>
-      </c>
+        <v>2.1651329989999999</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="1"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="1"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2632,7 +2263,7 @@
       <c r="G20" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20">
         <v>0.85198077241836501</v>
       </c>
       <c r="I20" s="2">
@@ -2641,7 +2272,7 @@
       <c r="J20" s="1">
         <v>3</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20">
         <v>0.81070777391016002</v>
       </c>
       <c r="L20" s="2">
@@ -2650,39 +2281,19 @@
       <c r="O20" s="1">
         <v>3</v>
       </c>
-      <c r="P20">
-        <v>0.85347256754516798</v>
+      <c r="P20" s="39">
+        <v>0.85463285300000003</v>
       </c>
       <c r="Q20" s="2">
-        <v>2.2549412250518799</v>
-      </c>
-      <c r="R20" s="25">
-        <v>3</v>
-      </c>
-      <c r="S20" s="26">
-        <v>0.83855462000000003</v>
-      </c>
-      <c r="T20" s="27">
-        <v>8.8531229499999995</v>
-      </c>
-      <c r="U20" s="1">
-        <v>3</v>
-      </c>
-      <c r="V20">
-        <v>0.851980772</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0.70754098899999995</v>
-      </c>
-      <c r="X20" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y20">
-        <v>0.81070777400000005</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>2.7818031310000002</v>
-      </c>
+        <v>2.205717087</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="1"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="1"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2706,7 +2317,7 @@
       <c r="G21" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21">
         <v>0.85198077241836501</v>
       </c>
       <c r="I21" s="2">
@@ -2715,7 +2326,7 @@
       <c r="J21" s="1">
         <v>4</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21">
         <v>0.81070777391016002</v>
       </c>
       <c r="L21" s="2">
@@ -2724,39 +2335,19 @@
       <c r="O21" s="1">
         <v>4</v>
       </c>
-      <c r="P21">
-        <v>0.85413558760152497</v>
+      <c r="P21" s="39">
+        <v>0.85678766799999995</v>
       </c>
       <c r="Q21" s="2">
-        <v>2.2376041412353498</v>
-      </c>
-      <c r="R21" s="25">
-        <v>4</v>
-      </c>
-      <c r="S21" s="26">
-        <v>0.83407922999999995</v>
-      </c>
-      <c r="T21" s="27">
-        <v>8.8371131399999996</v>
-      </c>
-      <c r="U21" s="1">
-        <v>4</v>
-      </c>
-      <c r="V21">
-        <v>0.851980772</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0.71313261999999999</v>
-      </c>
-      <c r="X21" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>0.81070777400000005</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>2.767557144</v>
-      </c>
+        <v>2.1879351140000001</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="1"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="1"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2780,7 +2371,7 @@
       <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22">
         <v>0.85198077241836501</v>
       </c>
       <c r="I22" s="2">
@@ -2789,7 +2380,7 @@
       <c r="J22" s="1">
         <v>5</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22">
         <v>0.81070777391016002</v>
       </c>
       <c r="L22" s="2">
@@ -2798,81 +2389,55 @@
       <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="P22">
-        <v>0.85479860765788096</v>
+      <c r="P22" s="39">
+        <v>0.85247803700000002</v>
       </c>
       <c r="Q22" s="2">
-        <v>2.2468793392181299</v>
-      </c>
-      <c r="R22" s="25">
-        <v>5</v>
-      </c>
-      <c r="S22" s="26">
-        <v>0.83540526999999998</v>
-      </c>
-      <c r="T22" s="27">
-        <v>8.8531439299999999</v>
-      </c>
-      <c r="U22" s="1">
-        <v>5</v>
-      </c>
-      <c r="V22">
-        <v>0.851980772</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0.71514797200000002</v>
-      </c>
-      <c r="X22" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y22">
-        <v>0.81070777400000005</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>2.761221886</v>
-      </c>
+        <v>2.1777081489999999</v>
+      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="1"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="1"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="15" t="s">
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="17"/>
-      <c r="O23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="32"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="17"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="O23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -2896,7 +2461,7 @@
       <c r="G24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -2905,48 +2470,30 @@
       <c r="J24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O24" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="38" t="s">
+      <c r="O24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R24" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="X24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="R24" s="12"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2970,7 +2517,7 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25">
         <v>0.82122905027932902</v>
       </c>
       <c r="I25" s="2">
@@ -2979,7 +2526,7 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25">
         <v>0.69832402234636803</v>
       </c>
       <c r="L25" s="2">
@@ -2988,39 +2535,18 @@
       <c r="O25" s="1">
         <v>1</v>
       </c>
-      <c r="P25">
-        <v>0.82122905027932902</v>
+      <c r="P25" s="39">
+        <v>0.81005586592178702</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.15836596488952601</v>
-      </c>
-      <c r="R25" s="1">
-        <v>1</v>
-      </c>
-      <c r="S25" s="24">
-        <v>0.69273743016759703</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0.174762964248657</v>
-      </c>
-      <c r="U25" s="1">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>0.82122905000000002</v>
-      </c>
-      <c r="W25" s="2">
-        <v>3.1949043000000003E-2</v>
-      </c>
-      <c r="X25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>0.69832402199999999</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>5.3377150999999998E-2</v>
-      </c>
+        <v>0.15161919593810999</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="1"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="1"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -3044,7 +2570,7 @@
       <c r="G26" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26">
         <v>0.82122905027932902</v>
       </c>
       <c r="I26" s="2">
@@ -3053,7 +2579,7 @@
       <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26">
         <v>0.69832402234636803</v>
       </c>
       <c r="L26" s="2">
@@ -3062,39 +2588,18 @@
       <c r="O26" s="1">
         <v>2</v>
       </c>
-      <c r="P26">
-        <v>0.81005586592178702</v>
+      <c r="P26" s="39">
+        <v>0.81564245810055802</v>
       </c>
       <c r="Q26" s="2">
-        <v>0.153714895248413</v>
-      </c>
-      <c r="R26" s="1">
-        <v>2</v>
-      </c>
-      <c r="S26" s="24">
-        <v>0.69832402234636803</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0.174715995788574</v>
-      </c>
-      <c r="U26" s="1">
-        <v>2</v>
-      </c>
-      <c r="V26">
-        <v>0.82122905000000002</v>
-      </c>
-      <c r="W26" s="2">
-        <v>2.6435851999999999E-2</v>
-      </c>
-      <c r="X26" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y26">
-        <v>0.69832402199999999</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>2.6199101999999998E-2</v>
-      </c>
+        <v>0.15609216690063399</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="1"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="1"/>
+      <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -3118,7 +2623,7 @@
       <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27">
         <v>0.82122905027932902</v>
       </c>
       <c r="I27" s="2">
@@ -3127,7 +2632,7 @@
       <c r="J27" s="1">
         <v>3</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27">
         <v>0.69832402234636803</v>
       </c>
       <c r="L27" s="2">
@@ -3136,39 +2641,18 @@
       <c r="O27" s="1">
         <v>3</v>
       </c>
-      <c r="P27">
-        <v>0.80446927374301602</v>
+      <c r="P27" s="39">
+        <v>0.82681564245810002</v>
       </c>
       <c r="Q27" s="2">
-        <v>0.167060136795043</v>
-      </c>
-      <c r="R27" s="1">
-        <v>3</v>
-      </c>
-      <c r="S27" s="24">
-        <v>0.70391061452513903</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0.17879390716552701</v>
-      </c>
-      <c r="U27" s="1">
-        <v>3</v>
-      </c>
-      <c r="V27">
-        <v>0.82122905000000002</v>
-      </c>
-      <c r="W27" s="2">
-        <v>2.4561166999999998E-2</v>
-      </c>
-      <c r="X27" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y27">
-        <v>0.69832402199999999</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>2.8033018E-2</v>
-      </c>
+        <v>0.16012406349182101</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="1"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="1"/>
+      <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -3192,7 +2676,7 @@
       <c r="G28" s="1">
         <v>4</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28">
         <v>0.82122905027932902</v>
       </c>
       <c r="I28" s="2">
@@ -3201,7 +2685,7 @@
       <c r="J28" s="1">
         <v>4</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28">
         <v>0.69832402234636803</v>
       </c>
       <c r="L28" s="2">
@@ -3210,39 +2694,18 @@
       <c r="O28" s="1">
         <v>4</v>
       </c>
-      <c r="P28">
-        <v>0.80446927374301602</v>
+      <c r="P28" s="39">
+        <v>0.81564245810055802</v>
       </c>
       <c r="Q28" s="2">
-        <v>0.17024803161620999</v>
-      </c>
-      <c r="R28" s="1">
-        <v>4</v>
-      </c>
-      <c r="S28" s="24">
-        <v>0.69832402234636803</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0.17758202552795399</v>
-      </c>
-      <c r="U28" s="1">
-        <v>4</v>
-      </c>
-      <c r="V28">
-        <v>0.82122905000000002</v>
-      </c>
-      <c r="W28" s="2">
-        <v>2.6794910000000002E-2</v>
-      </c>
-      <c r="X28" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y28">
-        <v>0.69832402199999999</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>2.5827884999999998E-2</v>
-      </c>
+        <v>0.156788349151611</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="1"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="1"/>
+      <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -3266,7 +2729,7 @@
       <c r="G29" s="1">
         <v>5</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29">
         <v>0.82122905027932902</v>
       </c>
       <c r="I29" s="2">
@@ -3275,7 +2738,7 @@
       <c r="J29" s="1">
         <v>5</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29">
         <v>0.69832402234636803</v>
       </c>
       <c r="L29" s="2">
@@ -3284,81 +2747,54 @@
       <c r="O29" s="1">
         <v>5</v>
       </c>
-      <c r="P29">
-        <v>0.82122905027932902</v>
+      <c r="P29" s="39">
+        <v>0.80446927374301602</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.14684677124023399</v>
-      </c>
-      <c r="R29" s="1">
-        <v>5</v>
-      </c>
-      <c r="S29" s="24">
-        <v>0.68715083798882604</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0.16951298713683999</v>
-      </c>
-      <c r="U29" s="1">
-        <v>5</v>
-      </c>
-      <c r="V29">
-        <v>0.82122905000000002</v>
-      </c>
-      <c r="W29" s="2">
-        <v>2.5578976E-2</v>
-      </c>
-      <c r="X29" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y29">
-        <v>0.69832402199999999</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>2.7102946999999999E-2</v>
-      </c>
+        <v>0.15862512588500899</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="1"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="1"/>
+      <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="12" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="15" t="s">
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="17"/>
-      <c r="O30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="S30" s="32"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V30" s="13"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="17"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="O30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -3382,7 +2818,7 @@
       <c r="G31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I31" s="8" t="s">
@@ -3391,48 +2827,30 @@
       <c r="J31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="38" t="s">
+      <c r="O31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R31" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S31" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="T31" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z31" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="R31" s="12"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -3456,7 +2874,7 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32">
         <v>0.82066666666666599</v>
       </c>
       <c r="I32" s="2">
@@ -3465,7 +2883,7 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32">
         <v>0.78133333333333299</v>
       </c>
       <c r="L32" s="2">
@@ -3474,39 +2892,18 @@
       <c r="O32" s="1">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>0.81200000000000006</v>
+      <c r="P32" s="39">
+        <v>0.81466666666666598</v>
       </c>
       <c r="Q32" s="2">
-        <v>7.0673420429229701</v>
-      </c>
-      <c r="R32" s="1">
-        <v>1</v>
-      </c>
-      <c r="S32" s="24">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="T32" s="2">
-        <v>8.9232189655303902</v>
-      </c>
-      <c r="U32" s="1">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>0.82066666700000002</v>
-      </c>
-      <c r="W32" s="2">
-        <v>2.1704449650000002</v>
-      </c>
-      <c r="X32" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>0.78133333333333299</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>1.5420727729797301</v>
-      </c>
+        <v>7.4308550357818604</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="1"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="1"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -3530,7 +2927,7 @@
       <c r="G33" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33">
         <v>0.82066666666666599</v>
       </c>
       <c r="I33" s="2">
@@ -3539,7 +2936,7 @@
       <c r="J33" s="1">
         <v>2</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33">
         <v>0.78133333333333299</v>
       </c>
       <c r="L33" s="2">
@@ -3548,39 +2945,18 @@
       <c r="O33" s="1">
         <v>2</v>
       </c>
-      <c r="P33">
-        <v>0.8135</v>
+      <c r="P33" s="39">
+        <v>0.81516666666666604</v>
       </c>
       <c r="Q33" s="2">
-        <v>6.9868371486663801</v>
-      </c>
-      <c r="R33" s="1">
-        <v>2</v>
-      </c>
-      <c r="S33" s="24">
-        <v>0.78183333333333305</v>
-      </c>
-      <c r="T33" s="2">
-        <v>8.9540829658508301</v>
-      </c>
-      <c r="U33" s="1">
-        <v>2</v>
-      </c>
-      <c r="V33">
-        <v>0.82066666700000002</v>
-      </c>
-      <c r="W33" s="2">
-        <v>2.1652998920000002</v>
-      </c>
-      <c r="X33" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y33">
-        <v>0.78133333333333299</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>1.5484590530395499</v>
-      </c>
+        <v>7.04316806793212</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="1"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="1"/>
+      <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -3604,7 +2980,7 @@
       <c r="G34" s="1">
         <v>3</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34">
         <v>0.82066666666666599</v>
       </c>
       <c r="I34" s="2">
@@ -3613,7 +2989,7 @@
       <c r="J34" s="1">
         <v>3</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34">
         <v>0.78133333333333299</v>
       </c>
       <c r="L34" s="2">
@@ -3622,39 +2998,18 @@
       <c r="O34" s="1">
         <v>3</v>
       </c>
-      <c r="P34">
-        <v>0.81483333333333297</v>
+      <c r="P34" s="39">
+        <v>0.8145</v>
       </c>
       <c r="Q34" s="2">
-        <v>7.35125684738159</v>
-      </c>
-      <c r="R34" s="1">
-        <v>3</v>
-      </c>
-      <c r="S34" s="24">
-        <v>0.77783333333333304</v>
-      </c>
-      <c r="T34" s="2">
-        <v>8.9763503074645996</v>
-      </c>
-      <c r="U34" s="1">
-        <v>3</v>
-      </c>
-      <c r="V34">
-        <v>0.82066666700000002</v>
-      </c>
-      <c r="W34" s="2">
-        <v>2.1737089159999998</v>
-      </c>
-      <c r="X34" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y34">
-        <v>0.78133333333333299</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>1.5512340068817101</v>
-      </c>
+        <v>6.8356370925903303</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="1"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="1"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -3678,7 +3033,7 @@
       <c r="G35" s="1">
         <v>4</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35">
         <v>0.82066666666666599</v>
       </c>
       <c r="I35" s="2">
@@ -3687,7 +3042,7 @@
       <c r="J35" s="1">
         <v>4</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35">
         <v>0.78133333333333299</v>
       </c>
       <c r="L35" s="2">
@@ -3696,39 +3051,18 @@
       <c r="O35" s="1">
         <v>4</v>
       </c>
-      <c r="P35">
-        <v>0.8165</v>
+      <c r="P35" s="39">
+        <v>0.81399999999999995</v>
       </c>
       <c r="Q35" s="2">
-        <v>7.2114019393920898</v>
-      </c>
-      <c r="R35" s="1">
-        <v>4</v>
-      </c>
-      <c r="S35" s="24">
-        <v>0.78083333333333305</v>
-      </c>
-      <c r="T35" s="2">
-        <v>9.06367588043212</v>
-      </c>
-      <c r="U35" s="1">
-        <v>4</v>
-      </c>
-      <c r="V35">
-        <v>0.82066666700000002</v>
-      </c>
-      <c r="W35" s="2">
-        <v>2.174731016</v>
-      </c>
-      <c r="X35" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y35">
-        <v>0.78133333333333299</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>1.5412302017211901</v>
-      </c>
+        <v>6.7961728572845397</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="1"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="1"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -3771,38 +3105,20 @@
         <v>5</v>
       </c>
       <c r="P36" s="4">
-        <v>0.81416666666666604</v>
+        <v>0.81316666666666604</v>
       </c>
       <c r="Q36" s="5">
-        <v>6.9859063625335596</v>
-      </c>
-      <c r="R36" s="3">
-        <v>5</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0.77966666666666595</v>
-      </c>
-      <c r="T36" s="5">
-        <v>8.91684889793396</v>
-      </c>
-      <c r="U36" s="3">
-        <v>5</v>
-      </c>
-      <c r="V36" s="4">
-        <v>0.82066666700000002</v>
-      </c>
-      <c r="W36" s="5">
-        <v>2.199632883</v>
-      </c>
-      <c r="X36" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="4">
-        <v>0.78133333333333299</v>
-      </c>
-      <c r="Z36" s="5">
-        <v>1.5417149066925</v>
-      </c>
+        <v>6.7540619373321498</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="42">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvazquez/Master's Thesis/HierarchicalShrinkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB67BA63-D3D4-334B-A220-603C1543C018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F9D46-3B5B-4B4C-8049-4C2EA23CD104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{357E562A-70B4-7247-8749-8E32BA1FF38C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{357E562A-70B4-7247-8749-8E32BA1FF38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
   <si>
     <t>DECISION TREE</t>
   </si>
@@ -132,13 +132,49 @@
   </si>
   <si>
     <t>RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>PCA-RF (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>PCA-RF (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>PCA-RF (TITANIC)</t>
+  </si>
+  <si>
+    <t>PCA-RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>HS-RF (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>HS-RF (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>HS-RF (TITANIC)</t>
+  </si>
+  <si>
+    <t>HS-RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (FASHION-MINST)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (TITANIC)</t>
+  </si>
+  <si>
+    <t>PCA-HS-RF (CREDIT CARD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,24 +324,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -790,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -806,9 +828,6 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,15 +835,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,22 +882,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1280,83 +1281,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E754C6-6445-3645-92BD-4D580DCA84A5}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="O5" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-      <c r="O1" s="33" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="O1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="35"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27" t="s">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="O2" s="27" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="O2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="27" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="18" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="27" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="23"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1395,24 +1396,42 @@
       <c r="L3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="8"/>
+      <c r="O3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1454,18 +1473,39 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4">
         <v>0.46879999999999999</v>
       </c>
       <c r="Q4" s="2">
         <v>242.86147209999999</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="1"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="1"/>
-      <c r="Z4" s="2"/>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="T4" s="2">
+        <v>218.60278199999999</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0.3105</v>
+      </c>
+      <c r="W4" s="2">
+        <v>263.945739</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>247.45802497863701</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1507,18 +1547,39 @@
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5">
         <v>0.46760000000000002</v>
       </c>
       <c r="Q5" s="2">
         <v>238.2900128</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="1"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="1"/>
-      <c r="Z5" s="2"/>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="T5" s="2">
+        <v>218.2076998</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="W5" s="2">
+        <v>263.77779479999998</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>0.22819999999999999</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>247.041374921798</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1560,18 +1621,39 @@
       <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6">
         <v>0.47260000000000002</v>
       </c>
       <c r="Q6" s="2">
         <v>244.79900119999999</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="1"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1"/>
-      <c r="Z6" s="2"/>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>0.38729999999999998</v>
+      </c>
+      <c r="T6" s="2">
+        <v>217.8642869</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="W6" s="2">
+        <v>277.38669590000001</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>0.2258</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>248.35789489746</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1613,18 +1695,39 @@
       <c r="O7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7">
         <v>0.4723</v>
       </c>
       <c r="Q7" s="2">
         <v>238.63387320000001</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="1"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1"/>
-      <c r="Z7" s="2"/>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="T7" s="2">
+        <v>219.618897</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>0.314</v>
+      </c>
+      <c r="W7" s="2">
+        <v>278.88868309999998</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>258.521233081817</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1666,54 +1769,81 @@
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8">
         <v>0.47099999999999997</v>
       </c>
       <c r="Q8" s="2">
         <v>241.29564909999999</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="1"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1"/>
-      <c r="Z8" s="2"/>
+      <c r="R8" s="1">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="T8" s="2">
+        <v>219.66223410000001</v>
+      </c>
+      <c r="U8" s="1">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0.3039</v>
+      </c>
+      <c r="W8" s="2">
+        <v>283.42662189999999</v>
+      </c>
+      <c r="X8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>252.19187021255399</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="O9" s="24" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="O9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="26"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1752,24 +1882,42 @@
       <c r="L10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8"/>
+      <c r="O10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1811,19 +1959,39 @@
       <c r="O11" s="1">
         <v>1</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11">
         <v>0.876</v>
       </c>
       <c r="Q11" s="2">
         <v>81.454409839999997</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="1"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1"/>
-      <c r="Z11" s="2"/>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="T11" s="2">
+        <v>209.153671</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="W11" s="2">
+        <v>92.412136790000005</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="30">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>228.236337900161</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1865,19 +2033,39 @@
       <c r="O12" s="1">
         <v>2</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12">
         <v>0.87360000000000004</v>
       </c>
       <c r="Q12" s="2">
         <v>81.358227970000002</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="1"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1"/>
-      <c r="Z12" s="2"/>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="T12" s="2">
+        <v>211.7116144</v>
+      </c>
+      <c r="U12" s="1">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="W12" s="2">
+        <v>90.666302920000007</v>
+      </c>
+      <c r="X12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>237.14588308334299</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1919,19 +2107,39 @@
       <c r="O13" s="1">
         <v>3</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13">
         <v>0.87709999999999999</v>
       </c>
       <c r="Q13" s="2">
         <v>83.7353363</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="1"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1"/>
-      <c r="Z13" s="2"/>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="T13" s="2">
+        <v>210.9635179</v>
+      </c>
+      <c r="U13" s="1">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="W13" s="2">
+        <v>92.576494220000001</v>
+      </c>
+      <c r="X13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="30">
+        <v>0.62409999999999999</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>229.84382200241001</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1973,19 +2181,39 @@
       <c r="O14" s="1">
         <v>4</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14">
         <v>0.87639999999999996</v>
       </c>
       <c r="Q14" s="2">
         <v>81.138241050000005</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="1"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1"/>
-      <c r="Z14" s="2"/>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="T14" s="2">
+        <v>215.21695399999999</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="W14" s="2">
+        <v>98.195971009999994</v>
+      </c>
+      <c r="X14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>224.437602996826</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2027,55 +2255,81 @@
       <c r="O15" s="1">
         <v>5</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15">
         <v>0.87680000000000002</v>
       </c>
       <c r="Q15" s="2">
         <v>81.001531119999996</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="1"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1"/>
-      <c r="Z15" s="2"/>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T15" s="2">
+        <v>206.163152</v>
+      </c>
+      <c r="U15" s="1">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="W15" s="2">
+        <v>91.444062950000003</v>
+      </c>
+      <c r="X15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>227.45023894309901</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24" t="s">
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="O16" s="24" t="s">
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="O16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="26"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="19"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="19"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -2114,24 +2368,42 @@
       <c r="L17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="8"/>
+      <c r="O17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2173,19 +2445,39 @@
       <c r="O18" s="1">
         <v>1</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18">
         <v>0.854964363</v>
       </c>
       <c r="Q18" s="2">
         <v>2.2182388309999999</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="1"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1"/>
-      <c r="Z18" s="2"/>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.83358196585446698</v>
+      </c>
+      <c r="T18" s="2">
+        <v>9.2575840950012207</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0.79048566219128102</v>
+      </c>
+      <c r="W18" s="2">
+        <v>9.9040467739105207</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>0.63898557931377398</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>14.4188430309295</v>
+      </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2227,19 +2519,39 @@
       <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19">
         <v>0.85546162800000003</v>
       </c>
       <c r="Q19" s="2">
         <v>2.1651329989999999</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="1"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1"/>
-      <c r="Z19" s="2"/>
+      <c r="R19" s="1">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>0.83325045582628798</v>
+      </c>
+      <c r="T19" s="2">
+        <v>9.0254337787628103</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>0.80142549312116695</v>
+      </c>
+      <c r="W19" s="2">
+        <v>9.9141061305999703</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>0.63600198906016903</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>14.3810729980468</v>
+      </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2281,19 +2593,39 @@
       <c r="O20" s="1">
         <v>3</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20">
         <v>0.85463285300000003</v>
       </c>
       <c r="Q20" s="2">
         <v>2.205717087</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="1"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1"/>
-      <c r="Z20" s="2"/>
+      <c r="R20" s="1">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>0.83689706613625003</v>
+      </c>
+      <c r="T20" s="2">
+        <v>8.9860768318176198</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>0.78899386706447805</v>
+      </c>
+      <c r="W20" s="2">
+        <v>9.8481030464172292</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="30">
+        <v>0.63136084866567199</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>14.184393882751399</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2335,19 +2667,39 @@
       <c r="O21" s="1">
         <v>4</v>
       </c>
-      <c r="P21" s="39">
+      <c r="P21">
         <v>0.85678766799999995</v>
       </c>
       <c r="Q21" s="2">
         <v>2.1879351140000001</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="1"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1"/>
-      <c r="Z21" s="2"/>
+      <c r="R21" s="1">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>0.83805735123487402</v>
+      </c>
+      <c r="T21" s="2">
+        <v>8.9632701873779297</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>0.78965688712083504</v>
+      </c>
+      <c r="W21" s="2">
+        <v>9.8093609809875399</v>
+      </c>
+      <c r="X21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="30">
+        <v>0.63484170396154405</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>14.258044958114599</v>
+      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2389,55 +2741,81 @@
       <c r="O22" s="1">
         <v>5</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22">
         <v>0.85247803700000002</v>
       </c>
       <c r="Q22" s="2">
         <v>2.1777081489999999</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="1"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1"/>
-      <c r="Z22" s="2"/>
+      <c r="R22" s="1">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>0.83557102602353694</v>
+      </c>
+      <c r="T22" s="2">
+        <v>8.9583132266998202</v>
+      </c>
+      <c r="U22" s="1">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <v>0.78799933697994295</v>
+      </c>
+      <c r="W22" s="2">
+        <v>9.7918307781219394</v>
+      </c>
+      <c r="X22" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="30">
+        <v>0.62937178849660202</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>14.219478845596299</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24" t="s">
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="O23" s="24" t="s">
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="O23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="26"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="19"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="19"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="20"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -2476,24 +2854,42 @@
       <c r="L24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="8"/>
+      <c r="O24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2535,18 +2931,39 @@
       <c r="O25" s="1">
         <v>1</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25">
         <v>0.81005586592178702</v>
       </c>
       <c r="Q25" s="2">
         <v>0.15161919593810999</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="1"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1"/>
-      <c r="Z25" s="2"/>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0.70391061452513903</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.18660497665405201</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0.76536312849162003</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0.47107195854187001</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="30">
+        <v>0.67039106145251304</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0.54279708862304599</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -2588,18 +3005,39 @@
       <c r="O26" s="1">
         <v>2</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26">
         <v>0.81564245810055802</v>
       </c>
       <c r="Q26" s="2">
         <v>0.15609216690063399</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="1"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1"/>
-      <c r="Z26" s="2"/>
+      <c r="R26" s="1">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>0.70391061452513903</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.17791104316711401</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>0.77094972067039103</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0.47488617897033603</v>
+      </c>
+      <c r="X26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="30">
+        <v>0.62011173184357504</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0.52410483360290505</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -2641,18 +3079,39 @@
       <c r="O27" s="1">
         <v>3</v>
       </c>
-      <c r="P27" s="39">
+      <c r="P27">
         <v>0.82681564245810002</v>
       </c>
       <c r="Q27" s="2">
         <v>0.16012406349182101</v>
       </c>
-      <c r="R27" s="1"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="1"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1"/>
-      <c r="Z27" s="2"/>
+      <c r="R27" s="1">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>0.68715083798882604</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.16406083106994601</v>
+      </c>
+      <c r="U27" s="1">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>0.76536312849162003</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0.46097898483276301</v>
+      </c>
+      <c r="X27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="30">
+        <v>0.66480446927374304</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0.52581214904785101</v>
+      </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -2694,18 +3153,39 @@
       <c r="O28" s="1">
         <v>4</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28">
         <v>0.81564245810055802</v>
       </c>
       <c r="Q28" s="2">
         <v>0.156788349151611</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="1"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1"/>
-      <c r="Z28" s="2"/>
+      <c r="R28" s="1">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>0.69273743016759703</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.173853158950805</v>
+      </c>
+      <c r="U28" s="1">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>0.77653631284916202</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0.46339488029479903</v>
+      </c>
+      <c r="X28" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="30">
+        <v>0.63687150837988804</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0.51887989044189398</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2747,54 +3227,81 @@
       <c r="O29" s="1">
         <v>5</v>
       </c>
-      <c r="P29" s="39">
+      <c r="P29">
         <v>0.80446927374301602</v>
       </c>
       <c r="Q29" s="2">
         <v>0.15862512588500899</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="1"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1"/>
-      <c r="Z29" s="2"/>
+      <c r="R29" s="1">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>0.69832402234636803</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.17419695854187001</v>
+      </c>
+      <c r="U29" s="1">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>0.76536312849162003</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0.464401245117187</v>
+      </c>
+      <c r="X29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="30">
+        <v>0.64804469273743004</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0.52757191658019997</v>
+      </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="21" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="24" t="s">
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="26"/>
-      <c r="O30" s="24" t="s">
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="O30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="26"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="19"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="20"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -2833,24 +3340,42 @@
       <c r="L31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="12"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="8"/>
+      <c r="O31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -2892,18 +3417,39 @@
       <c r="O32" s="1">
         <v>1</v>
       </c>
-      <c r="P32" s="39">
+      <c r="P32">
         <v>0.81466666666666598</v>
       </c>
       <c r="Q32" s="2">
         <v>7.4308550357818604</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="1"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1"/>
-      <c r="Z32" s="2"/>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0.77933333333333299</v>
+      </c>
+      <c r="T32" s="2">
+        <v>9.2575619220733607</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0.56716666666666604</v>
+      </c>
+      <c r="W32" s="2">
+        <v>14.436167240142799</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="30">
+        <v>0.53033333333333299</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>16.096173048019399</v>
+      </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -2945,18 +3491,39 @@
       <c r="O33" s="1">
         <v>2</v>
       </c>
-      <c r="P33" s="39">
+      <c r="P33">
         <v>0.81516666666666604</v>
       </c>
       <c r="Q33" s="2">
         <v>7.04316806793212</v>
       </c>
-      <c r="R33" s="1"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="1"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1"/>
-      <c r="Z33" s="2"/>
+      <c r="R33" s="1">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>0.78166666666666595</v>
+      </c>
+      <c r="T33" s="2">
+        <v>9.2479870319366402</v>
+      </c>
+      <c r="U33" s="1">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>0.58183333333333298</v>
+      </c>
+      <c r="W33" s="2">
+        <v>14.315376996994001</v>
+      </c>
+      <c r="X33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="30">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>16.0191938877105</v>
+      </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -2998,18 +3565,39 @@
       <c r="O34" s="1">
         <v>3</v>
       </c>
-      <c r="P34" s="39">
+      <c r="P34">
         <v>0.8145</v>
       </c>
       <c r="Q34" s="2">
         <v>6.8356370925903303</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="1"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1"/>
-      <c r="Z34" s="2"/>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>0.78083333333333305</v>
+      </c>
+      <c r="T34" s="2">
+        <v>9.1594491004943794</v>
+      </c>
+      <c r="U34" s="1">
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>0.57183333333333297</v>
+      </c>
+      <c r="W34" s="2">
+        <v>14.207653999328601</v>
+      </c>
+      <c r="X34" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="30">
+        <v>0.52066666666666594</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>16.069795846939002</v>
+      </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -3051,18 +3639,39 @@
       <c r="O35" s="1">
         <v>4</v>
       </c>
-      <c r="P35" s="39">
+      <c r="P35">
         <v>0.81399999999999995</v>
       </c>
       <c r="Q35" s="2">
         <v>6.7961728572845397</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="1"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1"/>
-      <c r="Z35" s="2"/>
+      <c r="R35" s="1">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="T35" s="2">
+        <v>9.1653721332549996</v>
+      </c>
+      <c r="U35" s="1">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>0.57366666666666599</v>
+      </c>
+      <c r="W35" s="2">
+        <v>14.1712329387664</v>
+      </c>
+      <c r="X35" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="30">
+        <v>0.52583333333333304</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>16.103781223297101</v>
+      </c>
     </row>
     <row r="36" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -3110,15 +3719,33 @@
       <c r="Q36" s="5">
         <v>6.7540619373321498</v>
       </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="5"/>
+      <c r="R36" s="3">
+        <v>5</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="T36" s="5">
+        <v>9.1170558929443306</v>
+      </c>
+      <c r="U36" s="3">
+        <v>5</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="W36" s="5">
+        <v>14.155737161636299</v>
+      </c>
+      <c r="X36" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>16.0239369869232</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="42">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvazquez/HierarchicalShrinkage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvazquez/Master's Thesis/HierarchicalShrinkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF0E0DD-4CC1-3D46-BED5-41805F71AF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC835848-BF7D-4B46-B98D-79C1640494AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{357E562A-70B4-7247-8749-8E32BA1FF38C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{357E562A-70B4-7247-8749-8E32BA1FF38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B1F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +828,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,13 +844,70 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,15 +919,6 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -877,37 +928,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1291,181 +1332,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E754C6-6445-3645-92BD-4D580DCA84A5}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:26" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-      <c r="O1" s="10" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="O1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="12"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="50"/>
     </row>
     <row r="2" spans="1:26" ht="28" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="13" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="O3" s="13" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
+      <c r="O3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13" t="s">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="16" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="17"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="13" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="15"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="41"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="O4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="9" t="s">
+      <c r="R4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" s="9" t="s">
+      <c r="U4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="9" t="s">
+      <c r="X4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1473,7 +1514,7 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5">
         <v>27.33</v>
       </c>
       <c r="C5" s="2">
@@ -1482,7 +1523,7 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5">
         <v>0.24529999999999999</v>
       </c>
       <c r="F5" s="2">
@@ -1491,7 +1532,7 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5">
         <v>0.26169999999999999</v>
       </c>
       <c r="I5" s="2">
@@ -1500,7 +1541,7 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5">
         <v>0.25950000000000001</v>
       </c>
       <c r="L5" s="2">
@@ -1509,7 +1550,7 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5">
         <v>0.46879999999999999</v>
       </c>
       <c r="Q5" s="2">
@@ -1518,7 +1559,7 @@
       <c r="R5" s="1">
         <v>1</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5">
         <v>0.38929999999999998</v>
       </c>
       <c r="T5" s="2">
@@ -1527,7 +1568,7 @@
       <c r="U5" s="1">
         <v>1</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5">
         <v>0.3105</v>
       </c>
       <c r="W5" s="2">
@@ -1536,7 +1577,7 @@
       <c r="X5" s="1">
         <v>1</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5">
         <v>0.22059999999999999</v>
       </c>
       <c r="Z5" s="2">
@@ -1547,7 +1588,7 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6">
         <v>27.15</v>
       </c>
       <c r="C6" s="2">
@@ -1556,7 +1597,7 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6">
         <v>0.2465</v>
       </c>
       <c r="F6" s="2">
@@ -1565,7 +1606,7 @@
       <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6">
         <v>0.26169999999999999</v>
       </c>
       <c r="I6" s="2">
@@ -1574,7 +1615,7 @@
       <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6">
         <v>0.25950000000000001</v>
       </c>
       <c r="L6" s="2">
@@ -1583,7 +1624,7 @@
       <c r="O6" s="1">
         <v>2</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6">
         <v>0.46760000000000002</v>
       </c>
       <c r="Q6" s="2">
@@ -1592,7 +1633,7 @@
       <c r="R6" s="1">
         <v>2</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6">
         <v>0.38450000000000001</v>
       </c>
       <c r="T6" s="2">
@@ -1601,7 +1642,7 @@
       <c r="U6" s="1">
         <v>2</v>
       </c>
-      <c r="V6" s="23">
+      <c r="V6">
         <v>0.31330000000000002</v>
       </c>
       <c r="W6" s="2">
@@ -1610,7 +1651,7 @@
       <c r="X6" s="1">
         <v>2</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Y6">
         <v>0.22819999999999999</v>
       </c>
       <c r="Z6" s="2">
@@ -1621,7 +1662,7 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7">
         <v>27.05</v>
       </c>
       <c r="C7" s="2">
@@ -1630,7 +1671,7 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7">
         <v>0.24310000000000001</v>
       </c>
       <c r="F7" s="2">
@@ -1639,7 +1680,7 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7">
         <v>0.26169999999999999</v>
       </c>
       <c r="I7" s="2">
@@ -1648,7 +1689,7 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7">
         <v>0.25950000000000001</v>
       </c>
       <c r="L7" s="2">
@@ -1657,7 +1698,7 @@
       <c r="O7" s="1">
         <v>3</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7">
         <v>0.47260000000000002</v>
       </c>
       <c r="Q7" s="2">
@@ -1666,7 +1707,7 @@
       <c r="R7" s="1">
         <v>3</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7">
         <v>0.38729999999999998</v>
       </c>
       <c r="T7" s="2">
@@ -1675,7 +1716,7 @@
       <c r="U7" s="1">
         <v>3</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7">
         <v>0.30919999999999997</v>
       </c>
       <c r="W7" s="2">
@@ -1684,7 +1725,7 @@
       <c r="X7" s="1">
         <v>3</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7">
         <v>0.2258</v>
       </c>
       <c r="Z7" s="2">
@@ -1695,7 +1736,7 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8">
         <v>26.92</v>
       </c>
       <c r="C8" s="2">
@@ -1704,7 +1745,7 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8">
         <v>0.24440000000000001</v>
       </c>
       <c r="F8" s="2">
@@ -1713,7 +1754,7 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8">
         <v>0.26169999999999999</v>
       </c>
       <c r="I8" s="2">
@@ -1722,7 +1763,7 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8">
         <v>0.25950000000000001</v>
       </c>
       <c r="L8" s="2">
@@ -1731,7 +1772,7 @@
       <c r="O8" s="1">
         <v>4</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8">
         <v>0.4723</v>
       </c>
       <c r="Q8" s="2">
@@ -1740,7 +1781,7 @@
       <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8">
         <v>0.39629999999999999</v>
       </c>
       <c r="T8" s="2">
@@ -1749,7 +1790,7 @@
       <c r="U8" s="1">
         <v>4</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8">
         <v>0.314</v>
       </c>
       <c r="W8" s="2">
@@ -1758,7 +1799,7 @@
       <c r="X8" s="1">
         <v>4</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8">
         <v>0.22090000000000001</v>
       </c>
       <c r="Z8" s="2">
@@ -1769,7 +1810,7 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9">
         <v>27.31</v>
       </c>
       <c r="C9" s="2">
@@ -1778,7 +1819,7 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9">
         <v>0.24299999999999999</v>
       </c>
       <c r="F9" s="2">
@@ -1787,7 +1828,7 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9">
         <v>0.26169999999999999</v>
       </c>
       <c r="I9" s="2">
@@ -1796,7 +1837,7 @@
       <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9">
         <v>0.25950000000000001</v>
       </c>
       <c r="L9" s="2">
@@ -1805,7 +1846,7 @@
       <c r="O9" s="1">
         <v>5</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9">
         <v>0.47099999999999997</v>
       </c>
       <c r="Q9" s="2">
@@ -1814,7 +1855,7 @@
       <c r="R9" s="1">
         <v>5</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9">
         <v>0.39319999999999999</v>
       </c>
       <c r="T9" s="2">
@@ -1823,7 +1864,7 @@
       <c r="U9" s="1">
         <v>5</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9">
         <v>0.3039</v>
       </c>
       <c r="W9" s="2">
@@ -1832,7 +1873,7 @@
       <c r="X9" s="1">
         <v>5</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9">
         <v>0.21629999999999999</v>
       </c>
       <c r="Z9" s="2">
@@ -1840,202 +1881,190 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="O10" s="25" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="O10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="10">
         <f>AVERAGE(P5:P9) * 100</f>
         <v>47.045999999999999</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="11">
         <f>AVERAGE(Q5:Q9) / 60</f>
         <v>4.0196000280000002</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="10">
         <f>AVERAGE(S5:S9) * 100</f>
         <v>39.011999999999993</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="11">
         <f>AVERAGE(T5:T9) / 60</f>
         <v>3.6465196660000001</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="10">
         <f>AVERAGE(V5:V9) * 100</f>
         <v>31.018000000000001</v>
       </c>
-      <c r="W10" s="27">
+      <c r="W10" s="11">
         <f>AVERAGE(W5:W9) / 60</f>
         <v>4.5580851156666666</v>
       </c>
-      <c r="X10" s="25" t="s">
+      <c r="X10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="10">
         <f>AVERAGE(Y5:Y9) * 100</f>
         <v>22.235999999999997</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="11">
         <f>AVERAGE(Z5:Z9) / 60</f>
         <v>4.178567993640887</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="13" t="s">
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="O12" s="13" t="s">
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="O12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14" t="s">
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14" t="s">
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14" t="s">
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="41"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="22" t="s">
+      <c r="O13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="T13" s="22" t="s">
+      <c r="R13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" s="22" t="s">
+      <c r="U13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="9" t="s">
+      <c r="X13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2043,7 +2072,7 @@
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14">
         <v>79.099999999999994</v>
       </c>
       <c r="C14" s="2">
@@ -2052,7 +2081,7 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14">
         <v>0.75080000000000002</v>
       </c>
       <c r="F14" s="2">
@@ -2061,7 +2090,7 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14">
         <v>0.71519999999999995</v>
       </c>
       <c r="I14" s="2">
@@ -2070,7 +2099,7 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14">
         <v>0.66120000000000001</v>
       </c>
       <c r="L14" s="2">
@@ -2079,34 +2108,34 @@
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14">
         <v>0.876</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14">
         <v>81.454409839999997</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14">
         <v>0.84630000000000005</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14">
         <v>209.153671</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14">
         <v>1</v>
       </c>
-      <c r="V14" s="23">
+      <c r="V14">
         <v>0.64859999999999995</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14">
         <v>92.412136790000005</v>
       </c>
-      <c r="X14" s="23">
+      <c r="X14">
         <v>1</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14">
         <v>0.61970000000000003</v>
       </c>
       <c r="Z14" s="2">
@@ -2117,7 +2146,7 @@
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15">
         <v>78.94</v>
       </c>
       <c r="C15" s="2">
@@ -2126,7 +2155,7 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15">
         <v>0.75049999999999994</v>
       </c>
       <c r="F15" s="2">
@@ -2135,7 +2164,7 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15">
         <v>0.71519999999999995</v>
       </c>
       <c r="I15" s="2">
@@ -2144,7 +2173,7 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15">
         <v>0.66120000000000001</v>
       </c>
       <c r="L15" s="2">
@@ -2153,34 +2182,34 @@
       <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15">
         <v>0.87360000000000004</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15">
         <v>81.358227970000002</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15">
         <v>0.84940000000000004</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15">
         <v>211.7116144</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15">
         <v>2</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15">
         <v>0.64949999999999997</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15">
         <v>90.666302920000007</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15">
         <v>2</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15">
         <v>0.62139999999999995</v>
       </c>
       <c r="Z15" s="2">
@@ -2191,7 +2220,7 @@
       <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16">
         <v>79.13</v>
       </c>
       <c r="C16" s="2">
@@ -2200,7 +2229,7 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16">
         <v>0.75070000000000003</v>
       </c>
       <c r="F16" s="2">
@@ -2209,7 +2238,7 @@
       <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16">
         <v>0.71519999999999995</v>
       </c>
       <c r="I16" s="2">
@@ -2218,7 +2247,7 @@
       <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16">
         <v>0.66120000000000001</v>
       </c>
       <c r="L16" s="2">
@@ -2227,34 +2256,34 @@
       <c r="O16" s="1">
         <v>3</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16">
         <v>0.87709999999999999</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16">
         <v>83.7353363</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16">
         <v>0.84699999999999998</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16">
         <v>210.9635179</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16">
         <v>3</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16">
         <v>0.65480000000000005</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16">
         <v>92.576494220000001</v>
       </c>
-      <c r="X16" s="23">
+      <c r="X16">
         <v>3</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16">
         <v>0.62409999999999999</v>
       </c>
       <c r="Z16" s="2">
@@ -2265,7 +2294,7 @@
       <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17">
         <v>78.900000000000006</v>
       </c>
       <c r="C17" s="2">
@@ -2274,7 +2303,7 @@
       <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17">
         <v>0.74729999999999996</v>
       </c>
       <c r="F17" s="2">
@@ -2283,7 +2312,7 @@
       <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17">
         <v>0.71519999999999995</v>
       </c>
       <c r="I17" s="2">
@@ -2292,7 +2321,7 @@
       <c r="J17" s="1">
         <v>4</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17">
         <v>0.66120000000000001</v>
       </c>
       <c r="L17" s="2">
@@ -2301,34 +2330,34 @@
       <c r="O17" s="1">
         <v>4</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17">
         <v>0.87639999999999996</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17">
         <v>81.138241050000005</v>
       </c>
-      <c r="R17" s="23">
-        <v>4</v>
-      </c>
-      <c r="S17" s="23">
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
         <v>0.84730000000000005</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17">
         <v>215.21695399999999</v>
       </c>
-      <c r="U17" s="23">
-        <v>4</v>
-      </c>
-      <c r="V17" s="23">
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
         <v>0.65610000000000002</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17">
         <v>98.195971009999994</v>
       </c>
-      <c r="X17" s="23">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="23">
+      <c r="X17">
+        <v>4</v>
+      </c>
+      <c r="Y17">
         <v>0.62090000000000001</v>
       </c>
       <c r="Z17" s="2">
@@ -2339,7 +2368,7 @@
       <c r="A18" s="1">
         <v>5</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18">
         <v>79.150000000000006</v>
       </c>
       <c r="C18" s="2">
@@ -2348,7 +2377,7 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18">
         <v>0.74809999999999999</v>
       </c>
       <c r="F18" s="2">
@@ -2357,7 +2386,7 @@
       <c r="G18" s="1">
         <v>5</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18">
         <v>0.71519999999999995</v>
       </c>
       <c r="I18" s="2">
@@ -2366,7 +2395,7 @@
       <c r="J18" s="1">
         <v>5</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18">
         <v>0.66120000000000001</v>
       </c>
       <c r="L18" s="2">
@@ -2375,34 +2404,34 @@
       <c r="O18" s="1">
         <v>5</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18">
         <v>0.87680000000000002</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18">
         <v>81.001531119999996</v>
       </c>
-      <c r="R18" s="23">
-        <v>5</v>
-      </c>
-      <c r="S18" s="23">
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
         <v>0.84599999999999997</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18">
         <v>206.163152</v>
       </c>
-      <c r="U18" s="23">
-        <v>5</v>
-      </c>
-      <c r="V18" s="23">
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
         <v>0.66290000000000004</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18">
         <v>91.444062950000003</v>
       </c>
-      <c r="X18" s="23">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="23">
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
         <v>0.61560000000000004</v>
       </c>
       <c r="Z18" s="2">
@@ -2410,1780 +2439,1784 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="O19" s="25" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="O19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="10">
         <f>AVERAGE(P14:P18) * 100</f>
         <v>87.597999999999999</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="10">
         <f>AVERAGE(Q14:Q18) / 60</f>
         <v>1.3622924876</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="R19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="10">
         <f>AVERAGE(S14:S18) * 100</f>
         <v>84.72</v>
       </c>
-      <c r="T19" s="26">
+      <c r="T19" s="10">
         <f>AVERAGE(T14:T18) / 60</f>
         <v>3.5106963643333331</v>
       </c>
-      <c r="U19" s="29" t="s">
+      <c r="U19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V19" s="26">
+      <c r="V19" s="10">
         <f>AVERAGE(V14:V18) * 100</f>
         <v>65.438000000000002</v>
       </c>
-      <c r="W19" s="26">
+      <c r="W19" s="10">
         <f>AVERAGE(W14:W18) / 60</f>
         <v>1.5509832262999999</v>
       </c>
-      <c r="X19" s="29" t="s">
+      <c r="X19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y19" s="26">
+      <c r="Y19" s="10">
         <f>AVERAGE(Y14:Y18) * 100</f>
         <v>62.033999999999992</v>
       </c>
-      <c r="Z19" s="27">
+      <c r="Z19" s="11">
         <f>AVERAGE(Z14:Z18) / 60</f>
         <v>3.8237129497527969</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="13" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="13" t="s">
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="O21" s="13" t="s">
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="O21" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="13" t="s">
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="13" t="s">
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="13" t="s">
+      <c r="V21" s="46"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="15"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="G22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="J22" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="21" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="21" t="s">
         <v>4</v>
       </c>
       <c r="S22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="T22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="21" t="s">
         <v>4</v>
       </c>
       <c r="V22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="W22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="X22" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Y22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="9" t="s">
+      <c r="Z22" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="24">
         <v>1</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="25">
         <v>81</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="26">
         <v>0.15</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="25">
         <v>0.77573346600000004</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="26">
         <v>0.68754410700000002</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="24">
         <v>1</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="25">
         <v>0.85198077241836501</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="26">
         <v>5.6041002273559501E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="24">
         <v>1</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="25">
         <v>0.81070777391016002</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="26">
         <v>0.28699684143066401</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="24">
         <v>1</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="25">
         <v>0.854964363</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="26">
         <v>2.2182388309999999</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="24">
         <v>1</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="25">
         <v>0.83358196585446698</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="26">
         <v>9.2575840950012207</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="24">
         <v>1</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V23" s="25">
         <v>0.79048566219128102</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="26">
         <v>9.9040467739105207</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="24">
         <v>1</v>
       </c>
-      <c r="Y23" s="23">
+      <c r="Y23" s="25">
         <v>0.63898557931377398</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z23" s="26">
         <v>14.4188430309295</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="24">
         <v>2</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="25">
         <v>80.89</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="24">
         <v>2</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="25">
         <v>0.77507044599999997</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="26">
         <v>0.67624688099999997</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="24">
         <v>2</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="25">
         <v>0.85198077241836501</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="26">
         <v>5.5407762527465799E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="24">
         <v>2</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="25">
         <v>0.81070777391016002</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="26">
         <v>0.279004096984863</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="24">
         <v>2</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="25">
         <v>0.85546162800000003</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="26">
         <v>2.1651329989999999</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="24">
         <v>2</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="25">
         <v>0.83325045582628798</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="26">
         <v>9.0254337787628103</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="24">
         <v>2</v>
       </c>
-      <c r="V24" s="23">
+      <c r="V24" s="25">
         <v>0.80142549312116695</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="26">
         <v>9.9141061305999703</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="24">
         <v>2</v>
       </c>
-      <c r="Y24" s="23">
+      <c r="Y24" s="25">
         <v>0.63600198906016903</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="26">
         <v>14.3810729980468</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="24">
         <v>3</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="25">
         <v>81.040000000000006</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="24">
         <v>3</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="25">
         <v>0.776396486</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="26">
         <v>0.67962598799999996</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="24">
         <v>3</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="25">
         <v>0.85198077241836501</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="26">
         <v>5.5373907089233398E-2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="24">
         <v>3</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="25">
         <v>0.81070777391016002</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="26">
         <v>0.260622978210449</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="24">
         <v>3</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="25">
         <v>0.85463285300000003</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="26">
         <v>2.205717087</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="24">
         <v>3</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="25">
         <v>0.83689706613625003</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="26">
         <v>8.9860768318176198</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="24">
         <v>3</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="25">
         <v>0.78899386706447805</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="26">
         <v>9.8481030464172292</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="24">
         <v>3</v>
       </c>
-      <c r="Y25" s="23">
+      <c r="Y25" s="25">
         <v>0.63136084866567199</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25" s="26">
         <v>14.184393882751399</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>4</v>
-      </c>
-      <c r="B26" s="23">
+      <c r="A26" s="24">
+        <v>4</v>
+      </c>
+      <c r="B26" s="25">
         <v>80.62</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="24">
+        <v>4</v>
+      </c>
+      <c r="E26" s="25">
         <v>0.77357865100000001</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="26">
         <v>0.67996120500000001</v>
       </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="23">
+      <c r="G26" s="24">
+        <v>4</v>
+      </c>
+      <c r="H26" s="25">
         <v>0.85198077241836501</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="26">
         <v>5.5092096328735303E-2</v>
       </c>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-      <c r="K26" s="23">
+      <c r="J26" s="24">
+        <v>4</v>
+      </c>
+      <c r="K26" s="25">
         <v>0.81070777391016002</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="26">
         <v>0.25960993766784601</v>
       </c>
-      <c r="O26" s="1">
-        <v>4</v>
-      </c>
-      <c r="P26" s="23">
+      <c r="O26" s="24">
+        <v>4</v>
+      </c>
+      <c r="P26" s="25">
         <v>0.85678766799999995</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="26">
         <v>2.1879351140000001</v>
       </c>
-      <c r="R26" s="1">
-        <v>4</v>
-      </c>
-      <c r="S26" s="23">
+      <c r="R26" s="24">
+        <v>4</v>
+      </c>
+      <c r="S26" s="25">
         <v>0.83805735123487402</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="26">
         <v>8.9632701873779297</v>
       </c>
-      <c r="U26" s="1">
-        <v>4</v>
-      </c>
-      <c r="V26" s="23">
+      <c r="U26" s="24">
+        <v>4</v>
+      </c>
+      <c r="V26" s="25">
         <v>0.78965688712083504</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="26">
         <v>9.8093609809875399</v>
       </c>
-      <c r="X26" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="23">
+      <c r="X26" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="25">
         <v>0.63484170396154405</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z26" s="26">
         <v>14.258044958114599</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>5</v>
-      </c>
-      <c r="B27" s="23">
+      <c r="A27" s="24">
+        <v>5</v>
+      </c>
+      <c r="B27" s="25">
         <v>80.62</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="24">
+        <v>5</v>
+      </c>
+      <c r="E27" s="25">
         <v>0.77755677099999998</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="26">
         <v>0.67207694100000004</v>
       </c>
-      <c r="G27" s="1">
-        <v>5</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="G27" s="24">
+        <v>5</v>
+      </c>
+      <c r="H27" s="25">
         <v>0.85198077241836501</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="26">
         <v>5.9075832366943297E-2</v>
       </c>
-      <c r="J27" s="1">
-        <v>5</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="J27" s="24">
+        <v>5</v>
+      </c>
+      <c r="K27" s="25">
         <v>0.81070777391016002</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="26">
         <v>0.25847601890563898</v>
       </c>
-      <c r="O27" s="1">
-        <v>5</v>
-      </c>
-      <c r="P27" s="23">
+      <c r="O27" s="24">
+        <v>5</v>
+      </c>
+      <c r="P27" s="25">
         <v>0.85247803700000002</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="26">
         <v>2.1777081489999999</v>
       </c>
-      <c r="R27" s="1">
-        <v>5</v>
-      </c>
-      <c r="S27" s="23">
+      <c r="R27" s="24">
+        <v>5</v>
+      </c>
+      <c r="S27" s="25">
         <v>0.83557102602353694</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="26">
         <v>8.9583132266998202</v>
       </c>
-      <c r="U27" s="1">
-        <v>5</v>
-      </c>
-      <c r="V27" s="23">
+      <c r="U27" s="24">
+        <v>5</v>
+      </c>
+      <c r="V27" s="25">
         <v>0.78799933697994295</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="26">
         <v>9.7918307781219394</v>
       </c>
-      <c r="X27" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="23">
+      <c r="X27" s="24">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="25">
         <v>0.62937178849660202</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="26">
         <v>14.219478845596299</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-      <c r="O28" s="25" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
+      <c r="O28" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="28">
         <f>AVERAGE(P23:P27) * 100</f>
         <v>85.486490980000013</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="29">
         <f>AVERAGE(Q23:Q27) / 60</f>
         <v>3.6515773933333336E-2</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R28" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="28">
         <f>AVERAGE(S23:S27) * 100</f>
         <v>83.547157301508321</v>
       </c>
-      <c r="T28" s="27">
+      <c r="T28" s="29">
         <f>AVERAGE(T23:T27) / 60</f>
         <v>0.15063559373219801</v>
       </c>
-      <c r="U28" s="25" t="s">
+      <c r="U28" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="26">
+      <c r="V28" s="28">
         <f>AVERAGE(V23:V27) * 100</f>
         <v>79.171224929554072</v>
       </c>
-      <c r="W28" s="27">
+      <c r="W28" s="29">
         <f>AVERAGE(W23:W27) / 60</f>
         <v>0.16422482570012403</v>
       </c>
-      <c r="X28" s="25" t="s">
+      <c r="X28" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" s="26">
+      <c r="Y28" s="28">
         <f>AVERAGE(Y23:Y27) * 100</f>
         <v>63.41123818995522</v>
       </c>
-      <c r="Z28" s="27">
+      <c r="Z28" s="29">
         <f>AVERAGE(Z23:Z27) / 60</f>
         <v>0.23820611238479533</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="16" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="13" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="13" t="s">
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="15"/>
-      <c r="O30" s="13" t="s">
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
+      <c r="O30" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="13" t="s">
+      <c r="P30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="13" t="s">
+      <c r="S30" s="46"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="14"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="13" t="s">
+      <c r="V30" s="46"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="15"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="47"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="A31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7" t="s">
+      <c r="G31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="J31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="21" t="s">
         <v>4</v>
       </c>
       <c r="P31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="R31" s="21" t="s">
         <v>4</v>
       </c>
       <c r="S31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="T31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U31" s="8" t="s">
+      <c r="U31" s="21" t="s">
         <v>4</v>
       </c>
       <c r="V31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="W31" s="9" t="s">
+      <c r="W31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X31" s="8" t="s">
+      <c r="X31" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Y31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z31" s="9" t="s">
+      <c r="Z31" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="24">
         <v>1</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="25">
         <v>77.650000000000006</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="26">
         <v>0.02</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="24">
         <v>1</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="25">
         <v>0.65921787700000001</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="26">
         <v>2.2442339999999999E-3</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="24">
         <v>1</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="25">
         <v>0.82122905027932902</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="26">
         <v>3.1812191009521402E-3</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="24">
         <v>1</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="25">
         <v>0.69832402234636803</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="26">
         <v>3.0548572540283199E-3</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="24">
         <v>1</v>
       </c>
-      <c r="P32" s="23">
+      <c r="P32" s="25">
         <v>0.81005586592178702</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="26">
         <v>0.15161919593810999</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="24">
         <v>1</v>
       </c>
-      <c r="S32" s="23">
+      <c r="S32" s="25">
         <v>0.70391061452513903</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="26">
         <v>0.18660497665405201</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="24">
         <v>1</v>
       </c>
-      <c r="V32" s="23">
+      <c r="V32" s="25">
         <v>0.76536312849162003</v>
       </c>
-      <c r="W32" s="2">
+      <c r="W32" s="26">
         <v>0.47107195854187001</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="24">
         <v>1</v>
       </c>
-      <c r="Y32" s="23">
+      <c r="Y32" s="25">
         <v>0.67039106145251304</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="Z32" s="26">
         <v>0.54279708862304599</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="24">
         <v>2</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="25">
         <v>77.650000000000006</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="26">
         <v>0</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="24">
         <v>2</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="25">
         <v>0.67597765399999998</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="26">
         <v>2.0310879999999999E-3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="24">
         <v>2</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="25">
         <v>0.82122905027932902</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="26">
         <v>2.4442672729492101E-3</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="24">
         <v>2</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="25">
         <v>0.69832402234636803</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="26">
         <v>2.32291221618652E-3</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="24">
         <v>2</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="25">
         <v>0.81564245810055802</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="26">
         <v>0.15609216690063399</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="24">
         <v>2</v>
       </c>
-      <c r="S33" s="23">
+      <c r="S33" s="25">
         <v>0.70391061452513903</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="26">
         <v>0.17791104316711401</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="24">
         <v>2</v>
       </c>
-      <c r="V33" s="23">
+      <c r="V33" s="25">
         <v>0.77094972067039103</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33" s="26">
         <v>0.47488617897033603</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33" s="24">
         <v>2</v>
       </c>
-      <c r="Y33" s="23">
+      <c r="Y33" s="25">
         <v>0.62011173184357504</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="26">
         <v>0.52410483360290505</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="24">
         <v>3</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="25">
         <v>78.209999999999994</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="26">
         <v>0</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="24">
         <v>3</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="25">
         <v>0.65921787700000001</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="26">
         <v>1.991034E-3</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="24">
         <v>3</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="25">
         <v>0.82122905027932902</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="26">
         <v>2.9633045196533199E-3</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="24">
         <v>3</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="25">
         <v>0.69832402234636803</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="26">
         <v>2.18796730041503E-3</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="24">
         <v>3</v>
       </c>
-      <c r="P34" s="23">
+      <c r="P34" s="25">
         <v>0.82681564245810002</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="26">
         <v>0.16012406349182101</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="24">
         <v>3</v>
       </c>
-      <c r="S34" s="23">
+      <c r="S34" s="25">
         <v>0.68715083798882604</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="26">
         <v>0.16406083106994601</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="24">
         <v>3</v>
       </c>
-      <c r="V34" s="23">
+      <c r="V34" s="25">
         <v>0.76536312849162003</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W34" s="26">
         <v>0.46097898483276301</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34" s="24">
         <v>3</v>
       </c>
-      <c r="Y34" s="23">
+      <c r="Y34" s="25">
         <v>0.66480446927374304</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34" s="26">
         <v>0.52581214904785101</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-      <c r="B35" s="23">
+      <c r="A35" s="24">
+        <v>4</v>
+      </c>
+      <c r="B35" s="25">
         <v>77.650000000000006</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="26">
         <v>0</v>
       </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="23">
+      <c r="D35" s="24">
+        <v>4</v>
+      </c>
+      <c r="E35" s="25">
         <v>0.66480446900000001</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="26">
         <v>2.096891E-3</v>
       </c>
-      <c r="G35" s="1">
-        <v>4</v>
-      </c>
-      <c r="H35" s="23">
+      <c r="G35" s="24">
+        <v>4</v>
+      </c>
+      <c r="H35" s="25">
         <v>0.82122905027932902</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="26">
         <v>2.8390884399414002E-3</v>
       </c>
-      <c r="J35" s="1">
-        <v>4</v>
-      </c>
-      <c r="K35" s="23">
+      <c r="J35" s="24">
+        <v>4</v>
+      </c>
+      <c r="K35" s="25">
         <v>0.69832402234636803</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="26">
         <v>3.0269622802734301E-3</v>
       </c>
-      <c r="O35" s="1">
-        <v>4</v>
-      </c>
-      <c r="P35" s="23">
+      <c r="O35" s="24">
+        <v>4</v>
+      </c>
+      <c r="P35" s="25">
         <v>0.81564245810055802</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="26">
         <v>0.156788349151611</v>
       </c>
-      <c r="R35" s="1">
-        <v>4</v>
-      </c>
-      <c r="S35" s="23">
+      <c r="R35" s="24">
+        <v>4</v>
+      </c>
+      <c r="S35" s="25">
         <v>0.69273743016759703</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="26">
         <v>0.173853158950805</v>
       </c>
-      <c r="U35" s="1">
-        <v>4</v>
-      </c>
-      <c r="V35" s="23">
+      <c r="U35" s="24">
+        <v>4</v>
+      </c>
+      <c r="V35" s="25">
         <v>0.77653631284916202</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W35" s="26">
         <v>0.46339488029479903</v>
       </c>
-      <c r="X35" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="23">
+      <c r="X35" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="25">
         <v>0.63687150837988804</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="Z35" s="26">
         <v>0.51887989044189398</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>5</v>
-      </c>
-      <c r="B36" s="23">
+      <c r="A36" s="24">
+        <v>5</v>
+      </c>
+      <c r="B36" s="25">
         <v>78.209999999999994</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="26">
         <v>0</v>
       </c>
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-      <c r="E36" s="23">
+      <c r="D36" s="24">
+        <v>5</v>
+      </c>
+      <c r="E36" s="25">
         <v>0.65921787700000001</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="26">
         <v>2.2339819999999998E-3</v>
       </c>
-      <c r="G36" s="1">
-        <v>5</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="G36" s="24">
+        <v>5</v>
+      </c>
+      <c r="H36" s="25">
         <v>0.82122905027932902</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="26">
         <v>4.64224815368652E-3</v>
       </c>
-      <c r="J36" s="1">
-        <v>5</v>
-      </c>
-      <c r="K36" s="23">
+      <c r="J36" s="24">
+        <v>5</v>
+      </c>
+      <c r="K36" s="25">
         <v>0.69832402234636803</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="26">
         <v>2.9699802398681602E-3</v>
       </c>
-      <c r="O36" s="1">
-        <v>5</v>
-      </c>
-      <c r="P36" s="23">
+      <c r="O36" s="24">
+        <v>5</v>
+      </c>
+      <c r="P36" s="25">
         <v>0.80446927374301602</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="26">
         <v>0.15862512588500899</v>
       </c>
-      <c r="R36" s="1">
-        <v>5</v>
-      </c>
-      <c r="S36" s="23">
+      <c r="R36" s="24">
+        <v>5</v>
+      </c>
+      <c r="S36" s="25">
         <v>0.69832402234636803</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36" s="26">
         <v>0.17419695854187001</v>
       </c>
-      <c r="U36" s="1">
-        <v>5</v>
-      </c>
-      <c r="V36" s="23">
+      <c r="U36" s="24">
+        <v>5</v>
+      </c>
+      <c r="V36" s="25">
         <v>0.76536312849162003</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="26">
         <v>0.464401245117187</v>
       </c>
-      <c r="X36" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="23">
+      <c r="X36" s="24">
+        <v>5</v>
+      </c>
+      <c r="Y36" s="25">
         <v>0.64804469273743004</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z36" s="26">
         <v>0.52757191658019997</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-      <c r="O37" s="25" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="53"/>
+      <c r="O37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="28">
         <f>AVERAGE(P32:P36) * 100</f>
         <v>81.452513966480382</v>
       </c>
-      <c r="Q37" s="27">
+      <c r="Q37" s="29">
         <f>AVERAGE(Q32:Q36) / 60</f>
         <v>2.6108296712239495E-3</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="R37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="28">
         <f>AVERAGE(S32:S36) * 100</f>
         <v>69.720670391061375</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="29">
         <f>AVERAGE(T32:T36) / 60</f>
         <v>2.9220898946126232E-3</v>
       </c>
-      <c r="U37" s="25" t="s">
+      <c r="U37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V37" s="28">
         <f>AVERAGE(V32:V36) * 100</f>
         <v>76.871508379888255</v>
       </c>
-      <c r="W37" s="27">
+      <c r="W37" s="29">
         <f>AVERAGE(W32:W36) / 60</f>
         <v>7.78244415918985E-3</v>
       </c>
-      <c r="X37" s="25" t="s">
+      <c r="X37" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Y37" s="26">
+      <c r="Y37" s="28">
         <f>AVERAGE(Y32:Y36) * 100</f>
         <v>64.804469273742995</v>
       </c>
-      <c r="Z37" s="27">
+      <c r="Z37" s="29">
         <f>AVERAGE(Z32:Z36) / 60</f>
         <v>8.7972195943196527E-3</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="16" t="s">
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="13" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="13" t="s">
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="15"/>
-      <c r="O39" s="13" t="s">
+      <c r="K39" s="46"/>
+      <c r="L39" s="47"/>
+      <c r="O39" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="13" t="s">
+      <c r="P39" s="46"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="S39" s="14"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="13" t="s">
+      <c r="S39" s="46"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="V39" s="14"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="13" t="s">
+      <c r="V39" s="46"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="15"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="47"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="D40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="7" t="s">
+      <c r="G40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" s="7" t="s">
+      <c r="J40" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="21" t="s">
         <v>4</v>
       </c>
       <c r="P40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R40" s="21" t="s">
         <v>4</v>
       </c>
       <c r="S40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T40" s="9" t="s">
+      <c r="T40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="U40" s="8" t="s">
+      <c r="U40" s="21" t="s">
         <v>4</v>
       </c>
       <c r="V40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="W40" s="9" t="s">
+      <c r="W40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X40" s="8" t="s">
+      <c r="X40" s="21" t="s">
         <v>4</v>
       </c>
       <c r="Y40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z40" s="9" t="s">
+      <c r="Z40" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="24">
         <v>1</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="25">
         <v>72.42</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="26">
         <v>0.62</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="24">
         <v>1</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="25">
         <v>0.69966666700000002</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="26">
         <v>0.41683816899999998</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="24">
         <v>1</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="25">
         <v>0.82066666666666599</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="26">
         <v>0.19172096252441401</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="24">
         <v>1</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="25">
         <v>0.78133333333333299</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="26">
         <v>0.13484907150268499</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="24">
         <v>1</v>
       </c>
-      <c r="P41" s="23">
+      <c r="P41" s="25">
         <v>0.81466666666666598</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="26">
         <v>7.4308550357818604</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="24">
         <v>1</v>
       </c>
-      <c r="S41" s="23">
+      <c r="S41" s="25">
         <v>0.77933333333333299</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="26">
         <v>9.2575619220733607</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="24">
         <v>1</v>
       </c>
-      <c r="V41" s="23">
+      <c r="V41" s="25">
         <v>0.56716666666666604</v>
       </c>
-      <c r="W41" s="2">
+      <c r="W41" s="26">
         <v>14.436167240142799</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="24">
         <v>1</v>
       </c>
-      <c r="Y41" s="23">
+      <c r="Y41" s="25">
         <v>0.53033333333333299</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="Z41" s="26">
         <v>16.096173048019399</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="24">
         <v>2</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="25">
         <v>71.98</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="26">
         <v>0.62</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="24">
         <v>2</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="25">
         <v>0.70466666700000002</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="26">
         <v>0.41258430499999998</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="24">
         <v>2</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="25">
         <v>0.82066666666666599</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="26">
         <v>0.190322160720825</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="24">
         <v>2</v>
       </c>
-      <c r="K42" s="23">
+      <c r="K42" s="25">
         <v>0.78133333333333299</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="26">
         <v>0.13779878616332999</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="24">
         <v>2</v>
       </c>
-      <c r="P42" s="23">
+      <c r="P42" s="25">
         <v>0.81516666666666604</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="26">
         <v>7.04316806793212</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="24">
         <v>2</v>
       </c>
-      <c r="S42" s="23">
+      <c r="S42" s="25">
         <v>0.78166666666666595</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="26">
         <v>9.2479870319366402</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U42" s="24">
         <v>2</v>
       </c>
-      <c r="V42" s="23">
+      <c r="V42" s="25">
         <v>0.58183333333333298</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="26">
         <v>14.315376996994001</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42" s="24">
         <v>2</v>
       </c>
-      <c r="Y42" s="23">
+      <c r="Y42" s="25">
         <v>0.52749999999999997</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="26">
         <v>16.0191938877105</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="24">
         <v>3</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="25">
         <v>72.42</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="26">
         <v>0.62</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="24">
         <v>3</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="25">
         <v>0.696333333</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="26">
         <v>0.41862797699999998</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="24">
         <v>3</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="25">
         <v>0.82066666666666599</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="26">
         <v>0.19070625305175701</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="24">
         <v>3</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="25">
         <v>0.78133333333333299</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="26">
         <v>0.13617897033691401</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="24">
         <v>3</v>
       </c>
-      <c r="P43" s="23">
+      <c r="P43" s="25">
         <v>0.8145</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="26">
         <v>6.8356370925903303</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="24">
         <v>3</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S43" s="25">
         <v>0.78083333333333305</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="26">
         <v>9.1594491004943794</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U43" s="24">
         <v>3</v>
       </c>
-      <c r="V43" s="23">
+      <c r="V43" s="25">
         <v>0.57183333333333297</v>
       </c>
-      <c r="W43" s="2">
+      <c r="W43" s="26">
         <v>14.207653999328601</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="24">
         <v>3</v>
       </c>
-      <c r="Y43" s="23">
+      <c r="Y43" s="25">
         <v>0.52066666666666594</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="Z43" s="26">
         <v>16.069795846939002</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>4</v>
-      </c>
-      <c r="B44" s="23">
+      <c r="A44" s="24">
+        <v>4</v>
+      </c>
+      <c r="B44" s="25">
         <v>72.22</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="26">
         <v>0.61</v>
       </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="23">
+      <c r="D44" s="24">
+        <v>4</v>
+      </c>
+      <c r="E44" s="25">
         <v>0.69816666699999996</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="26">
         <v>0.42206406600000002</v>
       </c>
-      <c r="G44" s="1">
-        <v>4</v>
-      </c>
-      <c r="H44" s="23">
+      <c r="G44" s="24">
+        <v>4</v>
+      </c>
+      <c r="H44" s="25">
         <v>0.82066666666666599</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="26">
         <v>0.188665151596069</v>
       </c>
-      <c r="J44" s="1">
-        <v>4</v>
-      </c>
-      <c r="K44" s="23">
+      <c r="J44" s="24">
+        <v>4</v>
+      </c>
+      <c r="K44" s="25">
         <v>0.78133333333333299</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="26">
         <v>0.137743949890136</v>
       </c>
-      <c r="O44" s="1">
-        <v>4</v>
-      </c>
-      <c r="P44" s="23">
+      <c r="O44" s="24">
+        <v>4</v>
+      </c>
+      <c r="P44" s="25">
         <v>0.81399999999999995</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="26">
         <v>6.7961728572845397</v>
       </c>
-      <c r="R44" s="1">
-        <v>4</v>
-      </c>
-      <c r="S44" s="23">
+      <c r="R44" s="24">
+        <v>4</v>
+      </c>
+      <c r="S44" s="25">
         <v>0.77800000000000002</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="26">
         <v>9.1653721332549996</v>
       </c>
-      <c r="U44" s="1">
-        <v>4</v>
-      </c>
-      <c r="V44" s="23">
+      <c r="U44" s="24">
+        <v>4</v>
+      </c>
+      <c r="V44" s="25">
         <v>0.57366666666666599</v>
       </c>
-      <c r="W44" s="2">
+      <c r="W44" s="26">
         <v>14.1712329387664</v>
       </c>
-      <c r="X44" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y44" s="23">
+      <c r="X44" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="25">
         <v>0.52583333333333304</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="Z44" s="26">
         <v>16.103781223297101</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4">
+      <c r="A45" s="32">
+        <v>5</v>
+      </c>
+      <c r="B45" s="33">
         <v>72.37</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="34">
         <v>0.6</v>
       </c>
-      <c r="D45" s="3">
-        <v>5</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="32">
+        <v>5</v>
+      </c>
+      <c r="E45" s="33">
         <v>0.69983333299999995</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="34">
         <v>0.40968489600000002</v>
       </c>
-      <c r="G45" s="3">
-        <v>5</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="32">
+        <v>5</v>
+      </c>
+      <c r="H45" s="33">
         <v>0.82066666666666599</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="34">
         <v>0.18522286415100001</v>
       </c>
-      <c r="J45" s="3">
-        <v>5</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="J45" s="32">
+        <v>5</v>
+      </c>
+      <c r="K45" s="33">
         <v>0.78133333333333299</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="34">
         <v>0.135076284408569</v>
       </c>
-      <c r="O45" s="3">
-        <v>5</v>
-      </c>
-      <c r="P45" s="4">
+      <c r="O45" s="32">
+        <v>5</v>
+      </c>
+      <c r="P45" s="33">
         <v>0.81316666666666604</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="34">
         <v>6.7540619373321498</v>
       </c>
-      <c r="R45" s="3">
-        <v>5</v>
-      </c>
-      <c r="S45" s="4">
+      <c r="R45" s="32">
+        <v>5</v>
+      </c>
+      <c r="S45" s="33">
         <v>0.78049999999999997</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="34">
         <v>9.1170558929443306</v>
       </c>
-      <c r="U45" s="3">
-        <v>5</v>
-      </c>
-      <c r="V45" s="4">
+      <c r="U45" s="32">
+        <v>5</v>
+      </c>
+      <c r="V45" s="33">
         <v>0.57699999999999996</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45" s="34">
         <v>14.155737161636299</v>
       </c>
-      <c r="X45" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="4">
+      <c r="X45" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="33">
         <v>0.52</v>
       </c>
-      <c r="Z45" s="5">
+      <c r="Z45" s="34">
         <v>16.0239369869232</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="5"/>
-      <c r="O46" s="25" t="s">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
+      <c r="O46" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P46" s="26">
+      <c r="P46" s="28">
         <f>AVERAGE(P41:P45) * 100</f>
         <v>81.429999999999964</v>
       </c>
-      <c r="Q46" s="26">
+      <c r="Q46" s="28">
         <f>AVERAGE(Q41:Q45) / 60</f>
         <v>0.11619964996973667</v>
       </c>
-      <c r="R46" s="29" t="s">
+      <c r="R46" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="26">
+      <c r="S46" s="28">
         <f>AVERAGE(S41:S45) * 100</f>
         <v>78.006666666666632</v>
       </c>
-      <c r="T46" s="26">
+      <c r="T46" s="28">
         <f>AVERAGE(T41:T45) / 60</f>
         <v>0.15315808693567903</v>
       </c>
-      <c r="U46" s="29" t="s">
+      <c r="U46" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="V46" s="26">
+      <c r="V46" s="28">
         <f>AVERAGE(V41:V45) * 100</f>
         <v>57.429999999999957</v>
       </c>
-      <c r="W46" s="26">
+      <c r="W46" s="28">
         <f>AVERAGE(W41:W45) / 60</f>
         <v>0.23762056112289368</v>
       </c>
-      <c r="X46" s="29" t="s">
+      <c r="X46" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="Y46" s="26">
+      <c r="Y46" s="28">
         <f>AVERAGE(Y41:Y45) * 100</f>
         <v>52.486666666666636</v>
       </c>
-      <c r="Z46" s="27">
+      <c r="Z46" s="29">
         <f>AVERAGE(Z41:Z45) / 60</f>
         <v>0.26770960330963067</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="U39:W39"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A1:L1"/>
@@ -4200,27 +4233,11 @@
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
